--- a/Automation_Framework_Health-Kart/TestData/Test_Script_Data.xlsx
+++ b/Automation_Framework_Health-Kart/TestData/Test_Script_Data.xlsx
@@ -3,23 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{863222B6-6278-44C0-B28C-86233226FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vino\git\Health_Kart-Repository\Automation_Framework_Health-Kart\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F144F9FD-F54C-445E-9895-C8DBEC10D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B475DE44-09F7-4E2F-BD56-3B436DBE3166}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{B475DE44-09F7-4E2F-BD56-3B436DBE3166}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN" sheetId="9" r:id="rId1"/>
     <sheet name="USER" sheetId="7" r:id="rId2"/>
     <sheet name="DOCTOR" sheetId="8" r:id="rId3"/>
-    <sheet name="SMOKE" sheetId="1" r:id="rId4"/>
-    <sheet name="INTEGRATION" sheetId="6" r:id="rId5"/>
-    <sheet name="SYSTEM" sheetId="3" r:id="rId6"/>
-    <sheet name="NEGATIVE SCENARIOS" sheetId="4" r:id="rId7"/>
-    <sheet name="PAGE VERIFY" sheetId="10" r:id="rId8"/>
-    <sheet name="DATA" sheetId="12" r:id="rId9"/>
+    <sheet name="PATIENT" sheetId="13" r:id="rId4"/>
+    <sheet name="SMOKE" sheetId="1" r:id="rId5"/>
+    <sheet name="INTEGRATION" sheetId="6" r:id="rId6"/>
+    <sheet name="SYSTEM" sheetId="3" r:id="rId7"/>
+    <sheet name="NEGATIVE SCENARIOS" sheetId="4" r:id="rId8"/>
+    <sheet name="PAGE VERIFY" sheetId="10" r:id="rId9"/>
+    <sheet name="DATA" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:L6"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="608">
   <si>
     <t>TC_ID</t>
   </si>
@@ -7288,25 +7293,28 @@
     <t>1208sudeep@gmail.com</t>
   </si>
   <si>
-    <t>3522sudeep@gmail.com</t>
+    <t>8007sudeep@gmail.com</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Mail ID</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>patient@gmail.com</t>
+  </si>
+  <si>
+    <t>Banaglore</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>5006sudeep@gmail.com</t>
-  </si>
-  <si>
-    <t>2841sudeep@gmail.com</t>
-  </si>
-  <si>
-    <t>3563sudeep@gmail.com</t>
-  </si>
-  <si>
-    <t>3021sudeep@gmail.com</t>
-  </si>
-  <si>
-    <t>8007sudeep@gmail.com</t>
+    <t>600sudeep@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -7891,7 +7899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8125,14 +8133,92 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8164,82 +8250,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8251,7 +8268,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8260,7 +8277,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8272,28 +8289,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8314,6 +8310,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8639,6 +8648,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19640DB8-BEE5-4035-B8AC-BFC850245289}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2695D9-E409-478A-808A-A6C53480F16A}">
   <dimension ref="A1:F8"/>
@@ -8836,7 +8857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B2CB34-EF56-4CC3-AB66-A8163A0020EB}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -8903,7 +8924,7 @@
         <v>552</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>599</v>
@@ -9054,6 +9075,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA87D7C6-4925-4A9F-BC0F-0953B73B6E60}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.6328125"/>
+    <col min="2" max="2" customWidth="true" width="20.08984375"/>
+    <col min="3" max="3" customWidth="true" width="11.08984375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="146" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{96B9B3EC-BEE4-4781-8FF4-0B2E46ADD8EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8C53F-05AB-4300-AF5D-132087EA4663}">
   <dimension ref="A1:I139"/>
   <sheetViews>
@@ -9104,13 +9170,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -9125,9 +9191,9 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="26.5" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
@@ -9142,13 +9208,13 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="109" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -9163,9 +9229,9 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
@@ -9180,9 +9246,9 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
@@ -9195,13 +9261,13 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="29">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -9218,9 +9284,9 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
@@ -9233,9 +9299,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
@@ -9250,9 +9316,9 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
@@ -9265,9 +9331,9 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
@@ -9280,13 +9346,13 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="29">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="112" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -9303,9 +9369,9 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
@@ -9318,41 +9384,41 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="84" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="109" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
@@ -9365,9 +9431,9 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
@@ -9382,9 +9448,9 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
@@ -9399,9 +9465,9 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="7" t="s">
         <v>48</v>
       </c>
@@ -9416,9 +9482,9 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="7" t="s">
         <v>51</v>
       </c>
@@ -9433,9 +9499,9 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="19" t="s">
         <v>55</v>
       </c>
@@ -9450,9 +9516,9 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="19" t="s">
         <v>58</v>
       </c>
@@ -9467,9 +9533,9 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="19" t="s">
         <v>60</v>
       </c>
@@ -9484,9 +9550,9 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="19" t="s">
         <v>61</v>
       </c>
@@ -9501,9 +9567,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="19" t="s">
         <v>65</v>
       </c>
@@ -9516,13 +9582,13 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="29">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -9539,9 +9605,9 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="7" t="s">
         <v>20</v>
       </c>
@@ -9554,39 +9620,39 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="29" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="89" t="s">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="120" t="s">
         <v>520</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="113" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="88"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="7" t="s">
         <v>126</v>
       </c>
@@ -9599,9 +9665,9 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="7" t="s">
         <v>128</v>
       </c>
@@ -9616,9 +9682,9 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="11" t="s">
         <v>129</v>
       </c>
@@ -9633,9 +9699,9 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="7" t="s">
         <v>131</v>
       </c>
@@ -9648,13 +9714,13 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="112" t="s">
         <v>159</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -9669,9 +9735,9 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="29">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="7" t="s">
         <v>13</v>
       </c>
@@ -9686,9 +9752,9 @@
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="7" t="s">
         <v>20</v>
       </c>
@@ -9701,9 +9767,9 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="7" t="s">
         <v>27</v>
       </c>
@@ -9718,9 +9784,9 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
@@ -9733,9 +9799,9 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="7" t="s">
         <v>30</v>
       </c>
@@ -9748,9 +9814,9 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" ht="29">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
@@ -9763,13 +9829,13 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" ht="26">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="106" t="s">
         <v>161</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -9787,9 +9853,9 @@
       <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="25" t="s">
         <v>165</v>
       </c>
@@ -9801,9 +9867,9 @@
       <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="25" t="s">
         <v>167</v>
       </c>
@@ -9817,13 +9883,13 @@
       <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:9" ht="26">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="99" t="s">
+      <c r="C44" s="103" t="s">
         <v>172</v>
       </c>
       <c r="D44" s="27" t="s">
@@ -9839,9 +9905,9 @@
       <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="27" t="s">
         <v>174</v>
       </c>
@@ -9853,9 +9919,9 @@
       <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="27" t="s">
         <v>176</v>
       </c>
@@ -9869,9 +9935,9 @@
       <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="101"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
       <c r="D47" s="27" t="s">
         <v>179</v>
       </c>
@@ -9885,13 +9951,13 @@
       <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="103" t="s">
         <v>184</v>
       </c>
       <c r="D48" s="27" t="s">
@@ -9906,9 +9972,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="39">
-      <c r="A49" s="100"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="27" t="s">
         <v>188</v>
       </c>
@@ -9923,9 +9989,9 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="27" t="s">
         <v>190</v>
       </c>
@@ -9936,13 +10002,13 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="103" t="s">
         <v>193</v>
       </c>
       <c r="D51" s="27" t="s">
@@ -9958,9 +10024,9 @@
       <c r="H51" s="27"/>
     </row>
     <row r="52" spans="1:8" ht="26">
-      <c r="A52" s="100"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
       <c r="D52" s="27" t="s">
         <v>196</v>
       </c>
@@ -9974,9 +10040,9 @@
       <c r="H52" s="27"/>
     </row>
     <row r="53" spans="1:8" ht="26">
-      <c r="A53" s="101"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="27" t="s">
         <v>197</v>
       </c>
@@ -9990,13 +10056,13 @@
       <c r="H53" s="27"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="99" t="s">
+      <c r="C54" s="103" t="s">
         <v>201</v>
       </c>
       <c r="D54" s="27" t="s">
@@ -10012,9 +10078,9 @@
       <c r="H54" s="27"/>
     </row>
     <row r="55" spans="1:8" ht="26">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
       <c r="D55" s="27" t="s">
         <v>204</v>
       </c>
@@ -10026,9 +10092,9 @@
       <c r="H55" s="27"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
       <c r="D56" s="27" t="s">
         <v>206</v>
       </c>
@@ -10040,9 +10106,9 @@
       <c r="H56" s="27"/>
     </row>
     <row r="57" spans="1:8" ht="26">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="27" t="s">
         <v>208</v>
       </c>
@@ -10056,9 +10122,9 @@
       <c r="H57" s="27"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="27" t="s">
         <v>211</v>
       </c>
@@ -10070,13 +10136,13 @@
       <c r="H58" s="27"/>
     </row>
     <row r="59" spans="1:8" ht="39">
-      <c r="A59" s="99" t="s">
+      <c r="A59" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="99" t="s">
+      <c r="C59" s="103" t="s">
         <v>214</v>
       </c>
       <c r="D59" s="27" t="s">
@@ -10092,9 +10158,9 @@
       <c r="H59" s="27"/>
     </row>
     <row r="60" spans="1:8" ht="39">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="27" t="s">
         <v>218</v>
       </c>
@@ -10108,9 +10174,9 @@
       <c r="H60" s="27"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="100"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="27" t="s">
         <v>220</v>
       </c>
@@ -10122,9 +10188,9 @@
       <c r="H61" s="27"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="100"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="27" t="s">
         <v>222</v>
       </c>
@@ -10136,9 +10202,9 @@
       <c r="H62" s="27"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="101"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
       <c r="D63" s="27" t="s">
         <v>211</v>
       </c>
@@ -10150,13 +10216,13 @@
       <c r="H63" s="27"/>
     </row>
     <row r="64" spans="1:8" ht="39">
-      <c r="A64" s="99" t="s">
+      <c r="A64" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="99" t="s">
+      <c r="B64" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="C64" s="99" t="s">
+      <c r="C64" s="103" t="s">
         <v>225</v>
       </c>
       <c r="D64" s="27" t="s">
@@ -10172,9 +10238,9 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" spans="1:8" ht="26">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="27" t="s">
         <v>204</v>
       </c>
@@ -10186,9 +10252,9 @@
       <c r="H65" s="27"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="27" t="s">
         <v>228</v>
       </c>
@@ -10200,9 +10266,9 @@
       <c r="H66" s="27"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="100"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
       <c r="D67" s="27" t="s">
         <v>229</v>
       </c>
@@ -10216,9 +10282,9 @@
       <c r="H67" s="27"/>
     </row>
     <row r="68" spans="1:8" ht="26">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="27" t="s">
         <v>232</v>
       </c>
@@ -10230,9 +10296,9 @@
       <c r="H68" s="27"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="101"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="101"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
       <c r="D69" s="27" t="s">
         <v>211</v>
       </c>
@@ -10244,13 +10310,13 @@
       <c r="H69" s="27"/>
     </row>
     <row r="70" spans="1:8" ht="39">
-      <c r="A70" s="99" t="s">
+      <c r="A70" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="99" t="s">
+      <c r="B70" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="99" t="s">
+      <c r="C70" s="103" t="s">
         <v>235</v>
       </c>
       <c r="D70" s="27" t="s">
@@ -10266,9 +10332,9 @@
       <c r="H70" s="27"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="100"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
+      <c r="A71" s="104"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
       <c r="D71" s="27" t="s">
         <v>238</v>
       </c>
@@ -10280,9 +10346,9 @@
       <c r="H71" s="27"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="100"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
       <c r="D72" s="27" t="s">
         <v>240</v>
       </c>
@@ -10294,9 +10360,9 @@
       <c r="H72" s="27"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="100"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="104"/>
       <c r="D73" s="27" t="s">
         <v>211</v>
       </c>
@@ -10308,9 +10374,9 @@
       <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="100"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="104"/>
       <c r="D74" s="27"/>
       <c r="E74" s="65"/>
       <c r="F74" s="27"/>
@@ -10318,9 +10384,9 @@
       <c r="H74" s="27"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="100"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
       <c r="D75" s="27"/>
       <c r="E75" s="65"/>
       <c r="F75" s="27"/>
@@ -10328,9 +10394,9 @@
       <c r="H75" s="27"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1">
-      <c r="A76" s="101"/>
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
       <c r="D76" s="27"/>
       <c r="E76" s="65"/>
       <c r="F76" s="27"/>
@@ -10338,13 +10404,13 @@
       <c r="H76" s="27"/>
     </row>
     <row r="77" spans="1:8" ht="29.5" thickBot="1">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="100" t="s">
         <v>318</v>
       </c>
-      <c r="B77" s="102" t="s">
+      <c r="B77" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="C77" s="102" t="s">
+      <c r="C77" s="100" t="s">
         <v>249</v>
       </c>
       <c r="D77" s="31" t="s">
@@ -10359,9 +10425,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1">
-      <c r="A78" s="103"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="33" t="s">
         <v>13</v>
       </c>
@@ -10372,9 +10438,9 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
-      <c r="A79" s="103"/>
-      <c r="B79" s="103"/>
-      <c r="C79" s="103"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="33" t="s">
         <v>250</v>
       </c>
@@ -10385,9 +10451,9 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
-      <c r="A80" s="103"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
+      <c r="A80" s="101"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="35" t="s">
         <v>252</v>
       </c>
@@ -10398,83 +10464,83 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1">
-      <c r="A81" s="103"/>
-      <c r="B81" s="103"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="105" t="s">
+      <c r="A81" s="101"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="94" t="s">
         <v>254</v>
       </c>
       <c r="E81" s="69"/>
       <c r="F81" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="G81" s="105" t="s">
+      <c r="G81" s="94" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1">
-      <c r="A82" s="103"/>
-      <c r="B82" s="103"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="106"/>
+      <c r="A82" s="101"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="95"/>
       <c r="E82" s="69"/>
       <c r="F82" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="G82" s="106"/>
+      <c r="G82" s="95"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1">
-      <c r="A83" s="103"/>
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="106"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="95"/>
       <c r="E83" s="69"/>
       <c r="F83" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="G83" s="106"/>
+      <c r="G83" s="95"/>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1">
-      <c r="A84" s="103"/>
-      <c r="B84" s="103"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="106"/>
+      <c r="A84" s="101"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="69"/>
       <c r="F84" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="G84" s="106"/>
+      <c r="G84" s="95"/>
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1">
-      <c r="A85" s="103"/>
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="106"/>
+      <c r="A85" s="101"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="95"/>
       <c r="E85" s="69"/>
       <c r="F85" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="G85" s="106"/>
+      <c r="G85" s="95"/>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1">
-      <c r="A86" s="104"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="107"/>
+      <c r="A86" s="102"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="96"/>
       <c r="E86" s="69"/>
       <c r="F86" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="G86" s="107"/>
+      <c r="G86" s="96"/>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="B87" s="108" t="s">
+      <c r="B87" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="108" t="s">
+      <c r="C87" s="97" t="s">
         <v>263</v>
       </c>
       <c r="D87" s="36" t="s">
@@ -10485,9 +10551,9 @@
       <c r="G87" s="35"/>
     </row>
     <row r="88" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A88" s="103"/>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
+      <c r="A88" s="101"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="98"/>
       <c r="D88" s="33" t="s">
         <v>13</v>
       </c>
@@ -10500,9 +10566,9 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1">
-      <c r="A89" s="104"/>
-      <c r="B89" s="110"/>
-      <c r="C89" s="110"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
       <c r="D89" s="33" t="s">
         <v>250</v>
       </c>
@@ -10513,13 +10579,13 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="108" t="s">
+      <c r="C90" s="97" t="s">
         <v>522</v>
       </c>
       <c r="D90" s="33" t="s">
@@ -10534,9 +10600,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1">
-      <c r="A91" s="109"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="98"/>
       <c r="D91" s="33" t="s">
         <v>265</v>
       </c>
@@ -10547,9 +10613,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="98"/>
       <c r="D92" s="33" t="s">
         <v>266</v>
       </c>
@@ -10562,9 +10628,9 @@
       <c r="G92" s="35"/>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1">
-      <c r="A93" s="109"/>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="98"/>
       <c r="D93" s="33" t="s">
         <v>269</v>
       </c>
@@ -10575,9 +10641,9 @@
       <c r="G93" s="35"/>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1">
-      <c r="A94" s="110"/>
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="33" t="s">
         <v>271</v>
       </c>
@@ -10588,13 +10654,13 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A95" s="111" t="s">
+      <c r="A95" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="B95" s="111" t="s">
+      <c r="B95" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="111" t="s">
+      <c r="C95" s="91" t="s">
         <v>274</v>
       </c>
       <c r="D95" s="33" t="s">
@@ -10609,9 +10675,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1">
-      <c r="A96" s="112"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="92"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="33" t="s">
         <v>265</v>
       </c>
@@ -10622,9 +10688,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1">
-      <c r="A97" s="112"/>
-      <c r="B97" s="112"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
       <c r="D97" s="33" t="s">
         <v>266</v>
       </c>
@@ -10639,9 +10705,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1">
-      <c r="A98" s="112"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="112"/>
+      <c r="A98" s="92"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="33" t="s">
         <v>269</v>
       </c>
@@ -10652,9 +10718,9 @@
       <c r="G98" s="35"/>
     </row>
     <row r="99" spans="1:7" ht="15" thickBot="1">
-      <c r="A99" s="112"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
+      <c r="A99" s="92"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="33" t="s">
         <v>271</v>
       </c>
@@ -10663,9 +10729,9 @@
       <c r="G99" s="35"/>
     </row>
     <row r="100" spans="1:7" ht="15" thickBot="1">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
+      <c r="A100" s="92"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="33" t="s">
         <v>276</v>
       </c>
@@ -10676,9 +10742,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="73" thickBot="1">
-      <c r="A101" s="113"/>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
+      <c r="A101" s="93"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
       <c r="D101" s="33" t="s">
         <v>278</v>
       </c>
@@ -10691,13 +10757,13 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A102" s="111" t="s">
+      <c r="A102" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="B102" s="111" t="s">
+      <c r="B102" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="C102" s="111" t="s">
+      <c r="C102" s="91" t="s">
         <v>282</v>
       </c>
       <c r="D102" s="33" t="s">
@@ -10712,9 +10778,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" thickBot="1">
-      <c r="A103" s="112"/>
-      <c r="B103" s="112"/>
-      <c r="C103" s="112"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
       <c r="D103" s="33" t="s">
         <v>266</v>
       </c>
@@ -10725,9 +10791,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="29" thickBot="1">
-      <c r="A104" s="112"/>
-      <c r="B104" s="112"/>
-      <c r="C104" s="112"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="33" t="s">
         <v>269</v>
       </c>
@@ -10742,9 +10808,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" thickBot="1">
-      <c r="A105" s="112"/>
-      <c r="B105" s="112"/>
-      <c r="C105" s="112"/>
+      <c r="A105" s="92"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
       <c r="D105" s="33" t="s">
         <v>271</v>
       </c>
@@ -10755,9 +10821,9 @@
       <c r="G105" s="35"/>
     </row>
     <row r="106" spans="1:7" ht="15" thickBot="1">
-      <c r="A106" s="112"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="112"/>
+      <c r="A106" s="92"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="35" t="s">
         <v>284</v>
       </c>
@@ -10768,49 +10834,49 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" thickBot="1">
-      <c r="A107" s="112"/>
-      <c r="B107" s="112"/>
-      <c r="C107" s="112"/>
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
       <c r="D107" s="35"/>
       <c r="E107" s="69"/>
       <c r="F107" s="34"/>
       <c r="G107" s="35"/>
     </row>
     <row r="108" spans="1:7" ht="15" thickBot="1">
-      <c r="A108" s="112"/>
-      <c r="B108" s="112"/>
-      <c r="C108" s="112"/>
+      <c r="A108" s="92"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="35"/>
       <c r="E108" s="69"/>
       <c r="F108" s="34"/>
       <c r="G108" s="35"/>
     </row>
     <row r="109" spans="1:7" ht="15" thickBot="1">
-      <c r="A109" s="112"/>
-      <c r="B109" s="112"/>
-      <c r="C109" s="112"/>
+      <c r="A109" s="92"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92"/>
       <c r="D109" s="35"/>
       <c r="E109" s="69"/>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
     </row>
     <row r="110" spans="1:7" ht="15" thickBot="1">
-      <c r="A110" s="113"/>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
+      <c r="A110" s="93"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="93"/>
       <c r="D110" s="35"/>
       <c r="E110" s="69"/>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
     </row>
     <row r="111" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A111" s="111" t="s">
+      <c r="A111" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="B111" s="111" t="s">
+      <c r="B111" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="C111" s="105" t="s">
+      <c r="C111" s="94" t="s">
         <v>286</v>
       </c>
       <c r="D111" s="36" t="s">
@@ -10825,9 +10891,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" thickBot="1">
-      <c r="A112" s="112"/>
-      <c r="B112" s="112"/>
-      <c r="C112" s="106"/>
+      <c r="A112" s="92"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="95"/>
       <c r="D112" s="35" t="s">
         <v>287</v>
       </c>
@@ -10838,9 +10904,9 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" thickBot="1">
-      <c r="A113" s="112"/>
-      <c r="B113" s="112"/>
-      <c r="C113" s="106"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="95"/>
       <c r="D113" s="35" t="s">
         <v>289</v>
       </c>
@@ -10855,9 +10921,9 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1">
-      <c r="A114" s="112"/>
-      <c r="B114" s="112"/>
-      <c r="C114" s="106"/>
+      <c r="A114" s="92"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="95"/>
       <c r="D114" s="33" t="s">
         <v>276</v>
       </c>
@@ -10868,9 +10934,9 @@
       <c r="G114" s="35"/>
     </row>
     <row r="115" spans="1:7" ht="73" thickBot="1">
-      <c r="A115" s="113"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="107"/>
+      <c r="A115" s="93"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="96"/>
       <c r="D115" s="33" t="s">
         <v>278</v>
       </c>
@@ -10883,13 +10949,13 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A116" s="111" t="s">
+      <c r="A116" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="B116" s="111" t="s">
+      <c r="B116" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="C116" s="105" t="s">
+      <c r="C116" s="94" t="s">
         <v>294</v>
       </c>
       <c r="D116" s="33" t="s">
@@ -10904,9 +10970,9 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="29" thickBot="1">
-      <c r="A117" s="112"/>
-      <c r="B117" s="112"/>
-      <c r="C117" s="106"/>
+      <c r="A117" s="92"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="95"/>
       <c r="D117" s="33" t="s">
         <v>266</v>
       </c>
@@ -10921,9 +10987,9 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" thickBot="1">
-      <c r="A118" s="112"/>
-      <c r="B118" s="112"/>
-      <c r="C118" s="106"/>
+      <c r="A118" s="92"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="95"/>
       <c r="D118" s="33" t="s">
         <v>269</v>
       </c>
@@ -10934,9 +11000,9 @@
       <c r="G118" s="35"/>
     </row>
     <row r="119" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A119" s="112"/>
-      <c r="B119" s="112"/>
-      <c r="C119" s="106"/>
+      <c r="A119" s="92"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="95"/>
       <c r="D119" s="33" t="s">
         <v>271</v>
       </c>
@@ -10947,9 +11013,9 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1">
-      <c r="A120" s="112"/>
-      <c r="B120" s="112"/>
-      <c r="C120" s="106"/>
+      <c r="A120" s="92"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="95"/>
       <c r="D120" s="35" t="s">
         <v>296</v>
       </c>
@@ -10960,9 +11026,9 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" thickBot="1">
-      <c r="A121" s="113"/>
-      <c r="B121" s="113"/>
-      <c r="C121" s="107"/>
+      <c r="A121" s="93"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="96"/>
       <c r="D121" s="35" t="s">
         <v>298</v>
       </c>
@@ -10975,13 +11041,13 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A122" s="111" t="s">
+      <c r="A122" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="B122" s="111" t="s">
+      <c r="B122" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="C122" s="105" t="s">
+      <c r="C122" s="94" t="s">
         <v>302</v>
       </c>
       <c r="D122" s="33" t="s">
@@ -10998,9 +11064,9 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" thickBot="1">
-      <c r="A123" s="112"/>
-      <c r="B123" s="112"/>
-      <c r="C123" s="106"/>
+      <c r="A123" s="92"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="95"/>
       <c r="D123" s="33" t="s">
         <v>266</v>
       </c>
@@ -11013,9 +11079,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A124" s="112"/>
-      <c r="B124" s="112"/>
-      <c r="C124" s="106"/>
+      <c r="A124" s="92"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="95"/>
       <c r="D124" s="33" t="s">
         <v>269</v>
       </c>
@@ -11028,9 +11094,9 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" thickBot="1">
-      <c r="A125" s="112"/>
-      <c r="B125" s="112"/>
-      <c r="C125" s="106"/>
+      <c r="A125" s="92"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="95"/>
       <c r="D125" s="33" t="s">
         <v>271</v>
       </c>
@@ -11039,9 +11105,9 @@
       <c r="G125" s="35"/>
     </row>
     <row r="126" spans="1:7" ht="15" thickBot="1">
-      <c r="A126" s="112"/>
-      <c r="B126" s="112"/>
-      <c r="C126" s="106"/>
+      <c r="A126" s="92"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="95"/>
       <c r="D126" s="35" t="s">
         <v>303</v>
       </c>
@@ -11052,9 +11118,9 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" thickBot="1">
-      <c r="A127" s="112"/>
-      <c r="B127" s="112"/>
-      <c r="C127" s="106"/>
+      <c r="A127" s="92"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="95"/>
       <c r="D127" s="35" t="s">
         <v>305</v>
       </c>
@@ -11065,9 +11131,9 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" thickBot="1">
-      <c r="A128" s="113"/>
-      <c r="B128" s="113"/>
-      <c r="C128" s="107"/>
+      <c r="A128" s="93"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="96"/>
       <c r="D128" s="35" t="s">
         <v>307</v>
       </c>
@@ -11078,13 +11144,13 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A129" s="114" t="s">
+      <c r="A129" s="83" t="s">
         <v>326</v>
       </c>
-      <c r="B129" s="114" t="s">
+      <c r="B129" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="C129" s="117" t="s">
+      <c r="C129" s="86" t="s">
         <v>310</v>
       </c>
       <c r="D129" s="33" t="s">
@@ -11099,9 +11165,9 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" thickBot="1">
-      <c r="A130" s="115"/>
-      <c r="B130" s="115"/>
-      <c r="C130" s="118"/>
+      <c r="A130" s="84"/>
+      <c r="B130" s="84"/>
+      <c r="C130" s="87"/>
       <c r="D130" s="33" t="s">
         <v>266</v>
       </c>
@@ -11114,9 +11180,9 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A131" s="115"/>
-      <c r="B131" s="115"/>
-      <c r="C131" s="118"/>
+      <c r="A131" s="84"/>
+      <c r="B131" s="84"/>
+      <c r="C131" s="87"/>
       <c r="D131" s="33" t="s">
         <v>269</v>
       </c>
@@ -11131,9 +11197,9 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="26.5" thickBot="1">
-      <c r="A132" s="115"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="118"/>
+      <c r="A132" s="84"/>
+      <c r="B132" s="84"/>
+      <c r="C132" s="87"/>
       <c r="D132" s="33" t="s">
         <v>271</v>
       </c>
@@ -11144,9 +11210,9 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1">
-      <c r="A133" s="116"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="119"/>
+      <c r="A133" s="85"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="88"/>
       <c r="D133" s="35" t="s">
         <v>312</v>
       </c>
@@ -11155,13 +11221,13 @@
       <c r="G133" s="35"/>
     </row>
     <row r="134" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A134" s="120" t="s">
+      <c r="A134" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="B134" s="120" t="s">
+      <c r="B134" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="C134" s="121" t="s">
+      <c r="C134" s="90" t="s">
         <v>314</v>
       </c>
       <c r="D134" s="33" t="s">
@@ -11176,9 +11242,9 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="29" thickBot="1">
-      <c r="A135" s="115"/>
-      <c r="B135" s="115"/>
-      <c r="C135" s="118"/>
+      <c r="A135" s="84"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="87"/>
       <c r="D135" s="33" t="s">
         <v>266</v>
       </c>
@@ -11191,9 +11257,9 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A136" s="115"/>
-      <c r="B136" s="115"/>
-      <c r="C136" s="118"/>
+      <c r="A136" s="84"/>
+      <c r="B136" s="84"/>
+      <c r="C136" s="87"/>
       <c r="D136" s="33" t="s">
         <v>269</v>
       </c>
@@ -11206,9 +11272,9 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" thickBot="1">
-      <c r="A137" s="115"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="118"/>
+      <c r="A137" s="84"/>
+      <c r="B137" s="84"/>
+      <c r="C137" s="87"/>
       <c r="D137" s="33" t="s">
         <v>271</v>
       </c>
@@ -11221,9 +11287,9 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" thickBot="1">
-      <c r="A138" s="115"/>
-      <c r="B138" s="115"/>
-      <c r="C138" s="118"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="84"/>
+      <c r="C138" s="87"/>
       <c r="D138" s="35" t="s">
         <v>312</v>
       </c>
@@ -11232,9 +11298,9 @@
       <c r="G138" s="35"/>
     </row>
     <row r="139" spans="1:7" ht="26.5" thickBot="1">
-      <c r="A139" s="116"/>
-      <c r="B139" s="116"/>
-      <c r="C139" s="119"/>
+      <c r="A139" s="85"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="88"/>
       <c r="D139" s="41" t="s">
         <v>316</v>
       </c>
@@ -11246,35 +11312,48 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="A102:A110"/>
-    <mergeCell ref="B102:B110"/>
-    <mergeCell ref="C102:C110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="G81:G86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C12:C25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B12:B25"/>
+    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C58"/>
     <mergeCell ref="C59:C63"/>
     <mergeCell ref="C64:C69"/>
     <mergeCell ref="C70:C76"/>
@@ -11287,48 +11366,35 @@
     <mergeCell ref="B70:B76"/>
     <mergeCell ref="B64:B69"/>
     <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B12:B25"/>
-    <mergeCell ref="A12:A25"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C12:C25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="B102:B110"/>
+    <mergeCell ref="C102:C110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="C134:C139"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{C6434389-9D2C-4B53-A38F-DDDE066C3663}"/>
@@ -11359,7 +11425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DEB2AF-E230-43FA-9C1B-B6C31E337CDE}">
   <dimension ref="A1:I143"/>
   <sheetViews>
@@ -11410,13 +11476,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="112" t="s">
         <v>140</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -11431,9 +11497,9 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="26.5" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="112"/>
       <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
@@ -11448,9 +11514,9 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="19" t="s">
         <v>69</v>
       </c>
@@ -11463,9 +11529,9 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
@@ -11480,9 +11546,9 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="19" t="s">
         <v>28</v>
       </c>
@@ -11495,9 +11561,9 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
@@ -11510,9 +11576,9 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="19" t="s">
         <v>113</v>
       </c>
@@ -11525,9 +11591,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="19" t="s">
         <v>146</v>
       </c>
@@ -11540,9 +11606,9 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="19" t="s">
         <v>142</v>
       </c>
@@ -11557,9 +11623,9 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="29">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="19" t="s">
         <v>67</v>
       </c>
@@ -11572,9 +11638,9 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="19" t="s">
         <v>70</v>
       </c>
@@ -11587,13 +11653,13 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="109" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -11606,13 +11672,13 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="12" t="s">
         <v>62</v>
       </c>
@@ -11621,9 +11687,9 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
@@ -11634,9 +11700,9 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="19" t="s">
         <v>145</v>
       </c>
@@ -11649,9 +11715,9 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="19" t="s">
         <v>148</v>
       </c>
@@ -11664,9 +11730,9 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
@@ -11675,9 +11741,9 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
@@ -11686,13 +11752,13 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="112" t="s">
         <v>151</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -11707,9 +11773,9 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="29">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="20" t="s">
         <v>13</v>
       </c>
@@ -11724,9 +11790,9 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="19" t="s">
         <v>69</v>
       </c>
@@ -11739,9 +11805,9 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="19" t="s">
         <v>27</v>
       </c>
@@ -11756,9 +11822,9 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="19" t="s">
         <v>28</v>
       </c>
@@ -11771,9 +11837,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="19" t="s">
         <v>54</v>
       </c>
@@ -11786,9 +11852,9 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="19" t="s">
         <v>113</v>
       </c>
@@ -11801,9 +11867,9 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="19" t="s">
         <v>146</v>
       </c>
@@ -11816,41 +11882,41 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="85" t="s">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="109" t="s">
         <v>152</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
     </row>
     <row r="30" spans="1:9" ht="29">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="19" t="s">
         <v>67</v>
       </c>
@@ -11863,9 +11929,9 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="19" t="s">
         <v>70</v>
       </c>
@@ -11878,13 +11944,13 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="109" t="s">
         <v>72</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -11897,13 +11963,13 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="12" t="s">
         <v>62</v>
       </c>
@@ -11912,9 +11978,9 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="19" t="s">
         <v>54</v>
       </c>
@@ -11925,9 +11991,9 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="19" t="s">
         <v>145</v>
       </c>
@@ -11940,9 +12006,9 @@
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="19" t="s">
         <v>156</v>
       </c>
@@ -11955,13 +12021,13 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="29">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="131" t="s">
         <v>328</v>
       </c>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="131" t="s">
         <v>329</v>
       </c>
       <c r="D37" s="42" t="s">
@@ -11979,9 +12045,9 @@
       <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="126"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="42" t="s">
         <v>330</v>
       </c>
@@ -11993,9 +12059,9 @@
       <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="126"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="42" t="s">
         <v>332</v>
       </c>
@@ -12009,9 +12075,9 @@
       <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="126"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="44" t="s">
         <v>334</v>
       </c>
@@ -12023,9 +12089,9 @@
       <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="44" t="s">
         <v>336</v>
       </c>
@@ -12039,9 +12105,9 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="29">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="44" t="s">
         <v>339</v>
       </c>
@@ -12053,9 +12119,9 @@
       <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="44" t="s">
         <v>341</v>
       </c>
@@ -12067,13 +12133,13 @@
       <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="43.5">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="132" t="s">
         <v>342</v>
       </c>
-      <c r="C44" s="122" t="s">
+      <c r="C44" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -12089,9 +12155,9 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:9" ht="29">
-      <c r="A45" s="123"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="123"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="44" t="s">
         <v>346</v>
       </c>
@@ -12105,9 +12171,9 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="123"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="123"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="44" t="s">
         <v>341</v>
       </c>
@@ -12119,9 +12185,9 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:9" ht="29">
-      <c r="A47" s="123"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="123"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="44" t="s">
         <v>349</v>
       </c>
@@ -12133,9 +12199,9 @@
       <c r="H47" s="44"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="124"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="124"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="127"/>
       <c r="D48" s="44" t="s">
         <v>341</v>
       </c>
@@ -12147,7 +12213,7 @@
       <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" ht="43.5">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="125" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="128" t="s">
@@ -12169,9 +12235,9 @@
       <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="123"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="44" t="s">
         <v>352</v>
       </c>
@@ -12185,9 +12251,9 @@
       <c r="H50" s="44"/>
     </row>
     <row r="51" spans="1:8" ht="29">
-      <c r="A51" s="123"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
+      <c r="A51" s="126"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="44" t="s">
         <v>339</v>
       </c>
@@ -12199,9 +12265,9 @@
       <c r="H51" s="44"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="124"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
       <c r="D52" s="44" t="s">
         <v>341</v>
       </c>
@@ -12213,7 +12279,7 @@
       <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:8" ht="43.5">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="125" t="s">
         <v>138</v>
       </c>
       <c r="B53" s="128" t="s">
@@ -12235,9 +12301,9 @@
       <c r="H53" s="44"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="123"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
+      <c r="A54" s="126"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="44" t="s">
         <v>352</v>
       </c>
@@ -12251,9 +12317,9 @@
       <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="123"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="44" t="s">
         <v>341</v>
       </c>
@@ -12265,9 +12331,9 @@
       <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="123"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="44" t="s">
         <v>357</v>
       </c>
@@ -12283,9 +12349,9 @@
       <c r="H56" s="44"/>
     </row>
     <row r="57" spans="1:8" ht="29">
-      <c r="A57" s="123"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="44" t="s">
         <v>361</v>
       </c>
@@ -12297,9 +12363,9 @@
       <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="124"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
       <c r="D58" s="44" t="s">
         <v>341</v>
       </c>
@@ -12311,7 +12377,7 @@
       <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:8" ht="43.5">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="125" t="s">
         <v>170</v>
       </c>
       <c r="B59" s="128" t="s">
@@ -12333,9 +12399,9 @@
       <c r="H59" s="44"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="123"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="126"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="44" t="s">
         <v>365</v>
       </c>
@@ -12349,9 +12415,9 @@
       <c r="H60" s="44"/>
     </row>
     <row r="61" spans="1:8" ht="29">
-      <c r="A61" s="123"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="126"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="44" t="s">
         <v>339</v>
       </c>
@@ -12363,9 +12429,9 @@
       <c r="H61" s="44"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="124"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
       <c r="D62" s="44" t="s">
         <v>341</v>
       </c>
@@ -12377,7 +12443,7 @@
       <c r="H62" s="44"/>
     </row>
     <row r="63" spans="1:8" ht="43.5">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="125" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="128" t="s">
@@ -12399,9 +12465,9 @@
       <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="123"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="44" t="s">
         <v>365</v>
       </c>
@@ -12415,9 +12481,9 @@
       <c r="H64" s="44"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="123"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="126"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="44" t="s">
         <v>341</v>
       </c>
@@ -12429,9 +12495,9 @@
       <c r="H65" s="44"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="123"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="126"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="44" t="s">
         <v>370</v>
       </c>
@@ -12447,9 +12513,9 @@
       <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="123"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="126"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="44" t="s">
         <v>374</v>
       </c>
@@ -12461,9 +12527,9 @@
       <c r="H67" s="44"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="123"/>
-      <c r="B68" s="126"/>
-      <c r="C68" s="126"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="44" t="s">
         <v>376</v>
       </c>
@@ -12477,9 +12543,9 @@
       <c r="H68" s="44"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="124"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="130"/>
       <c r="D69" s="44" t="s">
         <v>341</v>
       </c>
@@ -12491,13 +12557,13 @@
       <c r="H69" s="44"/>
     </row>
     <row r="70" spans="1:8" ht="43.5">
-      <c r="A70" s="122" t="s">
+      <c r="A70" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="122" t="s">
+      <c r="B70" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="C70" s="122" t="s">
+      <c r="C70" s="125" t="s">
         <v>380</v>
       </c>
       <c r="D70" s="44" t="s">
@@ -12513,9 +12579,9 @@
       <c r="H70" s="44"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="123"/>
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
+      <c r="A71" s="126"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
       <c r="D71" s="44" t="s">
         <v>383</v>
       </c>
@@ -12527,9 +12593,9 @@
       <c r="H71" s="44"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="123"/>
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
       <c r="D72" s="44" t="s">
         <v>385</v>
       </c>
@@ -12541,9 +12607,9 @@
       <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="123"/>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
+      <c r="A73" s="126"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
       <c r="D73" s="44" t="s">
         <v>341</v>
       </c>
@@ -12555,9 +12621,9 @@
       <c r="H73" s="44"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="123"/>
-      <c r="B74" s="123"/>
-      <c r="C74" s="123"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
       <c r="D74" s="44" t="s">
         <v>370</v>
       </c>
@@ -12573,9 +12639,9 @@
       <c r="H74" s="44"/>
     </row>
     <row r="75" spans="1:8" ht="29">
-      <c r="A75" s="123"/>
-      <c r="B75" s="123"/>
-      <c r="C75" s="123"/>
+      <c r="A75" s="126"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
       <c r="D75" s="44" t="s">
         <v>381</v>
       </c>
@@ -12587,9 +12653,9 @@
       <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="124"/>
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="44" t="s">
         <v>341</v>
       </c>
@@ -12601,13 +12667,13 @@
       <c r="H76" s="44"/>
     </row>
     <row r="77" spans="1:8" ht="43.5">
-      <c r="A77" s="122" t="s">
+      <c r="A77" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="122" t="s">
+      <c r="C77" s="125" t="s">
         <v>389</v>
       </c>
       <c r="D77" s="44" t="s">
@@ -12623,9 +12689,9 @@
       <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="123"/>
-      <c r="B78" s="123"/>
-      <c r="C78" s="123"/>
+      <c r="A78" s="126"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
       <c r="D78" s="44" t="s">
         <v>383</v>
       </c>
@@ -12637,9 +12703,9 @@
       <c r="H78" s="44"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="123"/>
-      <c r="B79" s="123"/>
-      <c r="C79" s="123"/>
+      <c r="A79" s="126"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
       <c r="D79" s="44" t="s">
         <v>385</v>
       </c>
@@ -12651,9 +12717,9 @@
       <c r="H79" s="44"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="123"/>
-      <c r="B80" s="123"/>
-      <c r="C80" s="123"/>
+      <c r="A80" s="126"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
       <c r="D80" s="44" t="s">
         <v>341</v>
       </c>
@@ -12665,9 +12731,9 @@
       <c r="H80" s="44"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="123"/>
-      <c r="B81" s="123"/>
-      <c r="C81" s="123"/>
+      <c r="A81" s="126"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
       <c r="D81" s="44" t="s">
         <v>357</v>
       </c>
@@ -12683,9 +12749,9 @@
       <c r="H81" s="44"/>
     </row>
     <row r="82" spans="1:8" ht="29">
-      <c r="A82" s="123"/>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123"/>
+      <c r="A82" s="126"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="44" t="s">
         <v>381</v>
       </c>
@@ -12697,9 +12763,9 @@
       <c r="H82" s="44"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
+      <c r="A83" s="127"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="44" t="s">
         <v>341</v>
       </c>
@@ -12711,13 +12777,13 @@
       <c r="H83" s="44"/>
     </row>
     <row r="84" spans="1:8" ht="43.5">
-      <c r="A84" s="122" t="s">
+      <c r="A84" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="B84" s="122" t="s">
+      <c r="B84" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="C84" s="122" t="s">
+      <c r="C84" s="125" t="s">
         <v>392</v>
       </c>
       <c r="D84" s="44" t="s">
@@ -12733,9 +12799,9 @@
       <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" ht="29">
-      <c r="A85" s="123"/>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
+      <c r="A85" s="126"/>
+      <c r="B85" s="126"/>
+      <c r="C85" s="126"/>
       <c r="D85" s="44" t="s">
         <v>204</v>
       </c>
@@ -12747,9 +12813,9 @@
       <c r="H85" s="44"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="123"/>
-      <c r="B86" s="123"/>
-      <c r="C86" s="123"/>
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
       <c r="D86" s="44" t="s">
         <v>396</v>
       </c>
@@ -12761,9 +12827,9 @@
       <c r="H86" s="44"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="123"/>
-      <c r="B87" s="123"/>
-      <c r="C87" s="123"/>
+      <c r="A87" s="126"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
       <c r="D87" s="44" t="s">
         <v>398</v>
       </c>
@@ -12777,9 +12843,9 @@
       <c r="H87" s="44"/>
     </row>
     <row r="88" spans="1:8" ht="29">
-      <c r="A88" s="123"/>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
+      <c r="A88" s="126"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
       <c r="D88" s="44" t="s">
         <v>232</v>
       </c>
@@ -12791,9 +12857,9 @@
       <c r="H88" s="44"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
+      <c r="A89" s="127"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
       <c r="D89" s="44" t="s">
         <v>341</v>
       </c>
@@ -12805,13 +12871,13 @@
       <c r="H89" s="44"/>
     </row>
     <row r="90" spans="1:8" ht="43.5">
-      <c r="A90" s="122" t="s">
+      <c r="A90" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="122" t="s">
+      <c r="B90" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="122" t="s">
+      <c r="C90" s="125" t="s">
         <v>402</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -12827,9 +12893,9 @@
       <c r="H90" s="44"/>
     </row>
     <row r="91" spans="1:8" ht="43.5">
-      <c r="A91" s="123"/>
-      <c r="B91" s="123"/>
-      <c r="C91" s="123"/>
+      <c r="A91" s="126"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="44" t="s">
         <v>405</v>
       </c>
@@ -12843,9 +12909,9 @@
       <c r="H91" s="44"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="123"/>
-      <c r="B92" s="123"/>
-      <c r="C92" s="123"/>
+      <c r="A92" s="126"/>
+      <c r="B92" s="126"/>
+      <c r="C92" s="126"/>
       <c r="D92" s="44" t="s">
         <v>341</v>
       </c>
@@ -12857,9 +12923,9 @@
       <c r="H92" s="44"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="123"/>
-      <c r="B93" s="123"/>
-      <c r="C93" s="123"/>
+      <c r="A93" s="126"/>
+      <c r="B93" s="126"/>
+      <c r="C93" s="126"/>
       <c r="D93" s="44" t="s">
         <v>357</v>
       </c>
@@ -12875,9 +12941,9 @@
       <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="123"/>
-      <c r="B94" s="123"/>
-      <c r="C94" s="123"/>
+      <c r="A94" s="126"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
       <c r="D94" s="44" t="s">
         <v>406</v>
       </c>
@@ -12889,9 +12955,9 @@
       <c r="H94" s="44"/>
     </row>
     <row r="95" spans="1:8" ht="29">
-      <c r="A95" s="123"/>
-      <c r="B95" s="123"/>
-      <c r="C95" s="123"/>
+      <c r="A95" s="126"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="126"/>
       <c r="D95" s="44" t="s">
         <v>408</v>
       </c>
@@ -12903,9 +12969,9 @@
       <c r="H95" s="44"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1">
-      <c r="A96" s="124"/>
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
+      <c r="A96" s="127"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="127"/>
       <c r="D96" s="44" t="s">
         <v>341</v>
       </c>
@@ -12917,13 +12983,13 @@
       <c r="H96" s="44"/>
     </row>
     <row r="97" spans="1:9" ht="29.5" thickBot="1">
-      <c r="A97" s="105" t="s">
+      <c r="A97" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="B97" s="105" t="s">
+      <c r="B97" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="C97" s="105" t="s">
+      <c r="C97" s="94" t="s">
         <v>415</v>
       </c>
       <c r="D97" s="31" t="s">
@@ -12940,9 +13006,9 @@
       <c r="I97" s="50"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1">
-      <c r="A98" s="106"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="106"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
       <c r="D98" s="33" t="s">
         <v>265</v>
       </c>
@@ -12957,9 +13023,9 @@
       <c r="I98" s="41"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1">
-      <c r="A99" s="106"/>
-      <c r="B99" s="106"/>
-      <c r="C99" s="106"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="95"/>
       <c r="D99" s="35" t="s">
         <v>252</v>
       </c>
@@ -12974,9 +13040,9 @@
       <c r="I99" s="41"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1">
-      <c r="A100" s="106"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
       <c r="D100" s="35" t="s">
         <v>416</v>
       </c>
@@ -12991,9 +13057,9 @@
       <c r="I100" s="41"/>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1">
-      <c r="A101" s="106"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="106"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
       <c r="D101" s="33" t="s">
         <v>265</v>
       </c>
@@ -13006,9 +13072,9 @@
       <c r="I101" s="41"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1">
-      <c r="A102" s="106"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="95"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
       <c r="F102" s="35" t="s">
@@ -13021,9 +13087,9 @@
       <c r="I102" s="41"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1">
-      <c r="A103" s="106"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="106"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
       <c r="F103" s="35" t="s">
@@ -13034,9 +13100,9 @@
       <c r="I103" s="41"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1">
-      <c r="A104" s="106"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="106"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="95"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
       <c r="F104" s="35"/>
@@ -13045,9 +13111,9 @@
       <c r="I104" s="41"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1">
-      <c r="A105" s="106"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="95"/>
       <c r="D105" s="33" t="s">
         <v>266</v>
       </c>
@@ -13060,9 +13126,9 @@
       <c r="I105" s="41"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1">
-      <c r="A106" s="106"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="106"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="95"/>
       <c r="D106" s="33" t="s">
         <v>419</v>
       </c>
@@ -13077,9 +13143,9 @@
       <c r="I106" s="41"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1">
-      <c r="A107" s="106"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="106"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="95"/>
       <c r="D107" s="35" t="s">
         <v>421</v>
       </c>
@@ -13092,9 +13158,9 @@
       <c r="I107" s="41"/>
     </row>
     <row r="108" spans="1:9" ht="26.5" thickBot="1">
-      <c r="A108" s="107"/>
-      <c r="B108" s="107"/>
-      <c r="C108" s="107"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="96"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
       <c r="F108" s="35"/>
@@ -13105,13 +13171,13 @@
       <c r="I108" s="41"/>
     </row>
     <row r="109" spans="1:9" ht="29.5" thickBot="1">
-      <c r="A109" s="105" t="s">
+      <c r="A109" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="105" t="s">
+      <c r="B109" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="C109" s="105" t="s">
+      <c r="C109" s="94" t="s">
         <v>292</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -13128,9 +13194,9 @@
       <c r="I109" s="41"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1">
-      <c r="A110" s="106"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="95"/>
       <c r="D110" s="33" t="s">
         <v>265</v>
       </c>
@@ -13143,9 +13209,9 @@
       <c r="I110" s="41"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1">
-      <c r="A111" s="106"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="95"/>
       <c r="D111" s="33" t="s">
         <v>266</v>
       </c>
@@ -13162,9 +13228,9 @@
       <c r="I111" s="41"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1">
-      <c r="A112" s="106"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="106"/>
+      <c r="A112" s="95"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="95"/>
       <c r="D112" s="33" t="s">
         <v>269</v>
       </c>
@@ -13177,9 +13243,9 @@
       <c r="I112" s="41"/>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1">
-      <c r="A113" s="106"/>
-      <c r="B113" s="106"/>
-      <c r="C113" s="106"/>
+      <c r="A113" s="95"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="95"/>
       <c r="D113" s="33" t="s">
         <v>271</v>
       </c>
@@ -13192,9 +13258,9 @@
       <c r="I113" s="41"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1">
-      <c r="A114" s="106"/>
-      <c r="B114" s="106"/>
-      <c r="C114" s="106"/>
+      <c r="A114" s="95"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="95"/>
       <c r="D114" s="51" t="s">
         <v>276</v>
       </c>
@@ -13209,9 +13275,9 @@
       <c r="I114" s="41"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1">
-      <c r="A115" s="106"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="106"/>
+      <c r="A115" s="95"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
       <c r="D115" s="35" t="s">
         <v>427</v>
       </c>
@@ -13226,9 +13292,9 @@
       <c r="I115" s="41"/>
     </row>
     <row r="116" spans="1:9" ht="26.5" thickBot="1">
-      <c r="A116" s="106"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="106"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="95"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35"/>
       <c r="F116" s="35" t="s">
@@ -13241,9 +13307,9 @@
       <c r="I116" s="41"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1">
-      <c r="A117" s="106"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="106"/>
+      <c r="A117" s="95"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="95"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35"/>
       <c r="F117" s="35" t="s">
@@ -13254,9 +13320,9 @@
       <c r="I117" s="41"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1">
-      <c r="A118" s="106"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="106"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="95"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
       <c r="F118" s="35"/>
@@ -13265,9 +13331,9 @@
       <c r="I118" s="41"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
-      <c r="A119" s="106"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="106"/>
+      <c r="A119" s="95"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="95"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
       <c r="F119" s="35"/>
@@ -13276,9 +13342,9 @@
       <c r="I119" s="41"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1">
-      <c r="A120" s="107"/>
-      <c r="B120" s="107"/>
-      <c r="C120" s="107"/>
+      <c r="A120" s="96"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
       <c r="F120" s="35"/>
@@ -13287,13 +13353,13 @@
       <c r="I120" s="41"/>
     </row>
     <row r="121" spans="1:9" ht="29.5" thickBot="1">
-      <c r="A121" s="132" t="s">
+      <c r="A121" s="122" t="s">
         <v>318</v>
       </c>
-      <c r="B121" s="132" t="s">
+      <c r="B121" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="C121" s="117" t="s">
+      <c r="C121" s="86" t="s">
         <v>433</v>
       </c>
       <c r="D121" s="33" t="s">
@@ -13310,9 +13376,9 @@
       <c r="I121" s="41"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1">
-      <c r="A122" s="133"/>
-      <c r="B122" s="133"/>
-      <c r="C122" s="118"/>
+      <c r="A122" s="123"/>
+      <c r="B122" s="123"/>
+      <c r="C122" s="87"/>
       <c r="D122" s="33" t="s">
         <v>265</v>
       </c>
@@ -13325,9 +13391,9 @@
       <c r="I122" s="41"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1">
-      <c r="A123" s="133"/>
-      <c r="B123" s="133"/>
-      <c r="C123" s="118"/>
+      <c r="A123" s="123"/>
+      <c r="B123" s="123"/>
+      <c r="C123" s="87"/>
       <c r="D123" s="33" t="s">
         <v>266</v>
       </c>
@@ -13344,9 +13410,9 @@
       <c r="I123" s="41"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1">
-      <c r="A124" s="133"/>
-      <c r="B124" s="133"/>
-      <c r="C124" s="118"/>
+      <c r="A124" s="123"/>
+      <c r="B124" s="123"/>
+      <c r="C124" s="87"/>
       <c r="D124" s="33" t="s">
         <v>269</v>
       </c>
@@ -13359,9 +13425,9 @@
       <c r="I124" s="41"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1">
-      <c r="A125" s="133"/>
-      <c r="B125" s="133"/>
-      <c r="C125" s="118"/>
+      <c r="A125" s="123"/>
+      <c r="B125" s="123"/>
+      <c r="C125" s="87"/>
       <c r="D125" s="33" t="s">
         <v>271</v>
       </c>
@@ -13372,9 +13438,9 @@
       <c r="I125" s="41"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1">
-      <c r="A126" s="133"/>
-      <c r="B126" s="133"/>
-      <c r="C126" s="118"/>
+      <c r="A126" s="123"/>
+      <c r="B126" s="123"/>
+      <c r="C126" s="87"/>
       <c r="D126" s="51" t="s">
         <v>276</v>
       </c>
@@ -13389,9 +13455,9 @@
       <c r="I126" s="41"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1">
-      <c r="A127" s="133"/>
-      <c r="B127" s="133"/>
-      <c r="C127" s="118"/>
+      <c r="A127" s="123"/>
+      <c r="B127" s="123"/>
+      <c r="C127" s="87"/>
       <c r="D127" s="33" t="s">
         <v>278</v>
       </c>
@@ -13406,9 +13472,9 @@
       <c r="I127" s="41"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1">
-      <c r="A128" s="133"/>
-      <c r="B128" s="133"/>
-      <c r="C128" s="118"/>
+      <c r="A128" s="123"/>
+      <c r="B128" s="123"/>
+      <c r="C128" s="87"/>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
       <c r="F128" s="35" t="s">
@@ -13421,9 +13487,9 @@
       <c r="I128" s="41"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
-      <c r="A129" s="133"/>
-      <c r="B129" s="133"/>
-      <c r="C129" s="118"/>
+      <c r="A129" s="123"/>
+      <c r="B129" s="123"/>
+      <c r="C129" s="87"/>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
       <c r="F129" s="35" t="s">
@@ -13434,9 +13500,9 @@
       <c r="I129" s="41"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1">
-      <c r="A130" s="133"/>
-      <c r="B130" s="133"/>
-      <c r="C130" s="118"/>
+      <c r="A130" s="123"/>
+      <c r="B130" s="123"/>
+      <c r="C130" s="87"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35"/>
       <c r="F130" s="35" t="s">
@@ -13447,9 +13513,9 @@
       <c r="I130" s="41"/>
     </row>
     <row r="131" spans="1:9" ht="15" thickBot="1">
-      <c r="A131" s="133"/>
-      <c r="B131" s="133"/>
-      <c r="C131" s="118"/>
+      <c r="A131" s="123"/>
+      <c r="B131" s="123"/>
+      <c r="C131" s="87"/>
       <c r="D131" s="35" t="s">
         <v>434</v>
       </c>
@@ -13460,9 +13526,9 @@
       <c r="I131" s="41"/>
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1">
-      <c r="A132" s="133"/>
-      <c r="B132" s="133"/>
-      <c r="C132" s="118"/>
+      <c r="A132" s="123"/>
+      <c r="B132" s="123"/>
+      <c r="C132" s="87"/>
       <c r="D132" s="52" t="s">
         <v>435</v>
       </c>
@@ -13475,9 +13541,9 @@
       <c r="I132" s="41"/>
     </row>
     <row r="133" spans="1:9" ht="15" thickBot="1">
-      <c r="A133" s="133"/>
-      <c r="B133" s="133"/>
-      <c r="C133" s="118"/>
+      <c r="A133" s="123"/>
+      <c r="B133" s="123"/>
+      <c r="C133" s="87"/>
       <c r="D133" s="35" t="s">
         <v>307</v>
       </c>
@@ -13490,9 +13556,9 @@
       <c r="I133" s="41"/>
     </row>
     <row r="134" spans="1:9" ht="26.5" thickBot="1">
-      <c r="A134" s="133"/>
-      <c r="B134" s="133"/>
-      <c r="C134" s="118"/>
+      <c r="A134" s="123"/>
+      <c r="B134" s="123"/>
+      <c r="C134" s="87"/>
       <c r="D134" s="35" t="s">
         <v>427</v>
       </c>
@@ -13505,9 +13571,9 @@
       <c r="I134" s="41"/>
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1">
-      <c r="A135" s="133"/>
-      <c r="B135" s="133"/>
-      <c r="C135" s="118"/>
+      <c r="A135" s="123"/>
+      <c r="B135" s="123"/>
+      <c r="C135" s="87"/>
       <c r="D135" s="35"/>
       <c r="E135" s="35"/>
       <c r="F135" s="35"/>
@@ -13516,9 +13582,9 @@
       <c r="I135" s="41"/>
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1">
-      <c r="A136" s="133"/>
-      <c r="B136" s="133"/>
-      <c r="C136" s="118"/>
+      <c r="A136" s="123"/>
+      <c r="B136" s="123"/>
+      <c r="C136" s="87"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35"/>
       <c r="F136" s="35" t="s">
@@ -13529,9 +13595,9 @@
       <c r="I136" s="41"/>
     </row>
     <row r="137" spans="1:9" ht="15" thickBot="1">
-      <c r="A137" s="133"/>
-      <c r="B137" s="133"/>
-      <c r="C137" s="118"/>
+      <c r="A137" s="123"/>
+      <c r="B137" s="123"/>
+      <c r="C137" s="87"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35"/>
       <c r="F137" s="35" t="s">
@@ -13542,9 +13608,9 @@
       <c r="I137" s="41"/>
     </row>
     <row r="138" spans="1:9" ht="15" thickBot="1">
-      <c r="A138" s="133"/>
-      <c r="B138" s="133"/>
-      <c r="C138" s="118"/>
+      <c r="A138" s="123"/>
+      <c r="B138" s="123"/>
+      <c r="C138" s="87"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35"/>
       <c r="F138" s="35"/>
@@ -13553,9 +13619,9 @@
       <c r="I138" s="41"/>
     </row>
     <row r="139" spans="1:9" ht="15" thickBot="1">
-      <c r="A139" s="133"/>
-      <c r="B139" s="133"/>
-      <c r="C139" s="118"/>
+      <c r="A139" s="123"/>
+      <c r="B139" s="123"/>
+      <c r="C139" s="87"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35"/>
       <c r="F139" s="35"/>
@@ -13564,9 +13630,9 @@
       <c r="I139" s="41"/>
     </row>
     <row r="140" spans="1:9" ht="15" thickBot="1">
-      <c r="A140" s="133"/>
-      <c r="B140" s="133"/>
-      <c r="C140" s="118"/>
+      <c r="A140" s="123"/>
+      <c r="B140" s="123"/>
+      <c r="C140" s="87"/>
       <c r="D140" s="35"/>
       <c r="E140" s="35"/>
       <c r="F140" s="35"/>
@@ -13575,9 +13641,9 @@
       <c r="I140" s="41"/>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1">
-      <c r="A141" s="133"/>
-      <c r="B141" s="133"/>
-      <c r="C141" s="118"/>
+      <c r="A141" s="123"/>
+      <c r="B141" s="123"/>
+      <c r="C141" s="87"/>
       <c r="D141" s="35"/>
       <c r="E141" s="35"/>
       <c r="F141" s="35"/>
@@ -13586,9 +13652,9 @@
       <c r="I141" s="41"/>
     </row>
     <row r="142" spans="1:9" ht="15" thickBot="1">
-      <c r="A142" s="133"/>
-      <c r="B142" s="133"/>
-      <c r="C142" s="118"/>
+      <c r="A142" s="123"/>
+      <c r="B142" s="123"/>
+      <c r="C142" s="87"/>
       <c r="D142" s="35"/>
       <c r="E142" s="35"/>
       <c r="F142" s="40"/>
@@ -13597,9 +13663,9 @@
       <c r="I142" s="41"/>
     </row>
     <row r="143" spans="1:9" ht="15" thickBot="1">
-      <c r="A143" s="134"/>
-      <c r="B143" s="134"/>
-      <c r="C143" s="119"/>
+      <c r="A143" s="124"/>
+      <c r="B143" s="124"/>
+      <c r="C143" s="88"/>
       <c r="D143" s="35"/>
       <c r="E143" s="35"/>
       <c r="F143" s="35"/>
@@ -13609,20 +13675,28 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A121:A143"/>
-    <mergeCell ref="B121:B143"/>
-    <mergeCell ref="C121:C143"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="C97:C108"/>
-    <mergeCell ref="A109:A120"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="C109:C120"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="B20:B36"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C52"/>
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="A84:A89"/>
     <mergeCell ref="A90:A96"/>
@@ -13639,28 +13713,20 @@
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="B20:B36"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="A121:A143"/>
+    <mergeCell ref="B121:B143"/>
+    <mergeCell ref="C121:C143"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="B97:B108"/>
+    <mergeCell ref="C97:C108"/>
+    <mergeCell ref="A109:A120"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="C109:C120"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{D3612E71-C4E7-40A8-84BF-84C17C57E92B}"/>
@@ -13679,7 +13745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773E9052-E36E-455F-B561-23E220E96B32}">
   <dimension ref="A1:I252"/>
   <sheetViews>
@@ -13730,13 +13796,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="112" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -13751,9 +13817,9 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="26.5" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="112"/>
       <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
@@ -13768,9 +13834,9 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="19" t="s">
         <v>69</v>
       </c>
@@ -13783,9 +13849,9 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
@@ -13800,9 +13866,9 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="19" t="s">
         <v>28</v>
       </c>
@@ -13815,9 +13881,9 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
@@ -13830,9 +13896,9 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="19" t="s">
         <v>36</v>
       </c>
@@ -13845,9 +13911,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="19" t="s">
         <v>38</v>
       </c>
@@ -13862,9 +13928,9 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="19" t="s">
         <v>42</v>
       </c>
@@ -13879,9 +13945,9 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
@@ -13896,9 +13962,9 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="19" t="s">
         <v>51</v>
       </c>
@@ -13913,9 +13979,9 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="19" t="s">
         <v>55</v>
       </c>
@@ -13930,9 +13996,9 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="19" t="s">
         <v>58</v>
       </c>
@@ -13947,9 +14013,9 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="19" t="s">
         <v>60</v>
       </c>
@@ -13964,9 +14030,9 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="19" t="s">
         <v>61</v>
       </c>
@@ -13981,9 +14047,9 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="19" t="s">
         <v>65</v>
       </c>
@@ -13996,9 +14062,9 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="29">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="19" t="s">
         <v>67</v>
       </c>
@@ -14011,9 +14077,9 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="19" t="s">
         <v>70</v>
       </c>
@@ -14026,9 +14092,9 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="19" t="s">
         <v>27</v>
       </c>
@@ -14043,9 +14109,9 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="19" t="s">
         <v>28</v>
       </c>
@@ -14058,9 +14124,9 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -14073,13 +14139,13 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="112" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -14096,9 +14162,9 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="19" t="s">
         <v>84</v>
       </c>
@@ -14111,41 +14177,41 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="135" t="s">
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="109" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="85"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
@@ -14156,104 +14222,104 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="29" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="135" t="s">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="135" t="s">
+      <c r="G28" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="83"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="135"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="83"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="135"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="83"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="135"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="83"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="110"/>
       <c r="F32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="135"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="83"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="135"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="83"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="110"/>
       <c r="F34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="135"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" spans="1:9" ht="29">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="19" t="s">
         <v>67</v>
       </c>
@@ -14266,9 +14332,9 @@
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="19" t="s">
         <v>85</v>
       </c>
@@ -14279,13 +14345,13 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="135" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="109" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="15" t="s">
@@ -14298,11 +14364,11 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="85"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="16" t="s">
         <v>88</v>
       </c>
@@ -14311,9 +14377,9 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="19" t="s">
         <v>90</v>
       </c>
@@ -14326,56 +14392,56 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" ht="29" customHeight="1">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="135" t="s">
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="83"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="93" t="s">
+      <c r="G40" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="83"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="83"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -14392,9 +14458,9 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="86"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="19" t="s">
         <v>98</v>
       </c>
@@ -14407,65 +14473,65 @@
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" ht="29" customHeight="1">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="135" t="s">
+      <c r="A45" s="109"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="83"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="93" t="s">
+      <c r="G45" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="83"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="110"/>
       <c r="F46" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="93"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="83"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="110"/>
       <c r="F47" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="93"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="83"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="110"/>
       <c r="F48" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="93"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="19" t="s">
         <v>84</v>
       </c>
@@ -14478,41 +14544,41 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="135" t="s">
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="85" t="s">
+      <c r="E50" s="109" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="93" t="s">
+      <c r="G50" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="85"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="19" t="s">
         <v>108</v>
       </c>
@@ -14525,13 +14591,13 @@
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" ht="29">
-      <c r="A53" s="138" t="s">
+      <c r="A53" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="138" t="s">
+      <c r="B53" s="135" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="138" t="s">
+      <c r="C53" s="135" t="s">
         <v>442</v>
       </c>
       <c r="D53" s="53" t="s">
@@ -14550,9 +14616,9 @@
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
       <c r="D54" s="53" t="s">
         <v>330</v>
       </c>
@@ -14565,9 +14631,9 @@
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="138"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
       <c r="D55" s="53" t="s">
         <v>332</v>
       </c>
@@ -14582,9 +14648,9 @@
       <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="138"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
+      <c r="A56" s="135"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
       <c r="D56" s="55" t="s">
         <v>444</v>
       </c>
@@ -14597,9 +14663,9 @@
       <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" ht="43.5">
-      <c r="A57" s="138"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
+      <c r="A57" s="135"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
       <c r="D57" s="55" t="s">
         <v>405</v>
       </c>
@@ -14614,9 +14680,9 @@
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" ht="29">
-      <c r="A58" s="138"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
       <c r="D58" s="55" t="s">
         <v>393</v>
       </c>
@@ -14629,9 +14695,9 @@
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="138"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
       <c r="D59" s="55" t="s">
         <v>341</v>
       </c>
@@ -14644,9 +14710,9 @@
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="138"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
       <c r="D60" s="55" t="s">
         <v>370</v>
       </c>
@@ -14663,9 +14729,9 @@
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" ht="29">
-      <c r="A61" s="138"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
       <c r="D61" s="55" t="s">
         <v>449</v>
       </c>
@@ -14678,9 +14744,9 @@
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
       <c r="D62" s="55" t="s">
         <v>341</v>
       </c>
@@ -14693,13 +14759,13 @@
       <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" ht="43.5">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="139" t="s">
+      <c r="B63" s="142" t="s">
         <v>451</v>
       </c>
-      <c r="C63" s="138" t="s">
+      <c r="C63" s="135" t="s">
         <v>452</v>
       </c>
       <c r="D63" s="55" t="s">
@@ -14716,9 +14782,9 @@
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" ht="43.5">
-      <c r="A64" s="139"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="138"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="135"/>
       <c r="D64" s="55" t="s">
         <v>405</v>
       </c>
@@ -14733,9 +14799,9 @@
       <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" ht="29">
-      <c r="A65" s="139"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="138"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="135"/>
       <c r="D65" s="55" t="s">
         <v>393</v>
       </c>
@@ -14748,9 +14814,9 @@
       <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" ht="29">
-      <c r="A66" s="139"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="138"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="135"/>
       <c r="D66" s="55" t="s">
         <v>204</v>
       </c>
@@ -14763,9 +14829,9 @@
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="139"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="138"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="142"/>
+      <c r="C67" s="135"/>
       <c r="D67" s="55" t="s">
         <v>454</v>
       </c>
@@ -14778,9 +14844,9 @@
       <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" ht="26">
-      <c r="A68" s="139"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="138"/>
+      <c r="A68" s="142"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="135"/>
       <c r="D68" s="55" t="s">
         <v>455</v>
       </c>
@@ -14795,9 +14861,9 @@
       <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="139"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="138"/>
+      <c r="A69" s="142"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="135"/>
       <c r="D69" s="55" t="s">
         <v>341</v>
       </c>
@@ -14810,9 +14876,9 @@
       <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="139"/>
-      <c r="B70" s="139"/>
-      <c r="C70" s="138"/>
+      <c r="A70" s="142"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="135"/>
       <c r="D70" s="55" t="s">
         <v>370</v>
       </c>
@@ -14829,9 +14895,9 @@
       <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" ht="29">
-      <c r="A71" s="139"/>
-      <c r="B71" s="139"/>
-      <c r="C71" s="138"/>
+      <c r="A71" s="142"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="135"/>
       <c r="D71" s="55" t="s">
         <v>449</v>
       </c>
@@ -14844,9 +14910,9 @@
       <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="139"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="138"/>
+      <c r="A72" s="142"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="135"/>
       <c r="D72" s="55" t="s">
         <v>341</v>
       </c>
@@ -14859,13 +14925,13 @@
       <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" ht="43.5">
-      <c r="A73" s="139" t="s">
+      <c r="A73" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="139" t="s">
+      <c r="B73" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="139" t="s">
+      <c r="C73" s="142" t="s">
         <v>225</v>
       </c>
       <c r="D73" s="55" t="s">
@@ -14882,9 +14948,9 @@
       <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" ht="29">
-      <c r="A74" s="139"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="139"/>
+      <c r="A74" s="142"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="142"/>
       <c r="D74" s="55" t="s">
         <v>204</v>
       </c>
@@ -14897,9 +14963,9 @@
       <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="139"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="139"/>
+      <c r="A75" s="142"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
       <c r="D75" s="55" t="s">
         <v>459</v>
       </c>
@@ -14912,9 +14978,9 @@
       <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="139"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
+      <c r="A76" s="142"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="142"/>
       <c r="D76" s="55" t="s">
         <v>460</v>
       </c>
@@ -14929,9 +14995,9 @@
       <c r="I76" s="7"/>
     </row>
     <row r="77" spans="1:9" ht="29">
-      <c r="A77" s="139"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="139"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="142"/>
+      <c r="C77" s="142"/>
       <c r="D77" s="55" t="s">
         <v>232</v>
       </c>
@@ -14944,9 +15010,9 @@
       <c r="I77" s="7"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="139"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="139"/>
+      <c r="A78" s="142"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="142"/>
       <c r="D78" s="55" t="s">
         <v>341</v>
       </c>
@@ -14959,9 +15025,9 @@
       <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="139"/>
-      <c r="B79" s="139"/>
-      <c r="C79" s="139"/>
+      <c r="A79" s="142"/>
+      <c r="B79" s="142"/>
+      <c r="C79" s="142"/>
       <c r="D79" s="55" t="s">
         <v>370</v>
       </c>
@@ -14978,9 +15044,9 @@
       <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" ht="29">
-      <c r="A80" s="139"/>
-      <c r="B80" s="139"/>
-      <c r="C80" s="139"/>
+      <c r="A80" s="142"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="142"/>
       <c r="D80" s="55" t="s">
         <v>449</v>
       </c>
@@ -14993,9 +15059,9 @@
       <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="139"/>
-      <c r="B81" s="139"/>
-      <c r="C81" s="139"/>
+      <c r="A81" s="142"/>
+      <c r="B81" s="142"/>
+      <c r="C81" s="142"/>
       <c r="D81" s="55" t="s">
         <v>341</v>
       </c>
@@ -15008,13 +15074,13 @@
       <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" ht="43.5">
-      <c r="A82" s="138" t="s">
+      <c r="A82" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="B82" s="138" t="s">
+      <c r="B82" s="135" t="s">
         <v>462</v>
       </c>
-      <c r="C82" s="138" t="s">
+      <c r="C82" s="135" t="s">
         <v>463</v>
       </c>
       <c r="D82" s="55" t="s">
@@ -15031,9 +15097,9 @@
       <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" ht="43.5">
-      <c r="A83" s="138"/>
-      <c r="B83" s="138"/>
-      <c r="C83" s="138"/>
+      <c r="A83" s="135"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
       <c r="D83" s="55" t="s">
         <v>405</v>
       </c>
@@ -15048,9 +15114,9 @@
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" ht="29">
-      <c r="A84" s="138"/>
-      <c r="B84" s="138"/>
-      <c r="C84" s="138"/>
+      <c r="A84" s="135"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
       <c r="D84" s="55" t="s">
         <v>393</v>
       </c>
@@ -15063,9 +15129,9 @@
       <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="138"/>
-      <c r="B85" s="138"/>
-      <c r="C85" s="138"/>
+      <c r="A85" s="135"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
       <c r="D85" s="55" t="s">
         <v>341</v>
       </c>
@@ -15078,9 +15144,9 @@
       <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="138"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
+      <c r="A86" s="135"/>
+      <c r="B86" s="135"/>
+      <c r="C86" s="135"/>
       <c r="D86" s="55" t="s">
         <v>357</v>
       </c>
@@ -15097,9 +15163,9 @@
       <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="138"/>
-      <c r="B87" s="138"/>
-      <c r="C87" s="138"/>
+      <c r="A87" s="135"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
       <c r="D87" s="55" t="s">
         <v>464</v>
       </c>
@@ -15112,9 +15178,9 @@
       <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="138"/>
-      <c r="B88" s="138"/>
-      <c r="C88" s="138"/>
+      <c r="A88" s="135"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="135"/>
       <c r="D88" s="55" t="s">
         <v>341</v>
       </c>
@@ -15127,13 +15193,13 @@
       <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9" ht="43.5">
-      <c r="A89" s="139" t="s">
+      <c r="A89" s="142" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="139" t="s">
+      <c r="B89" s="142" t="s">
         <v>466</v>
       </c>
-      <c r="C89" s="138" t="s">
+      <c r="C89" s="135" t="s">
         <v>467</v>
       </c>
       <c r="D89" s="55" t="s">
@@ -15150,9 +15216,9 @@
       <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:9" ht="43.5">
-      <c r="A90" s="139"/>
-      <c r="B90" s="139"/>
-      <c r="C90" s="138"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="135"/>
       <c r="D90" s="55" t="s">
         <v>405</v>
       </c>
@@ -15167,9 +15233,9 @@
       <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" ht="29">
-      <c r="A91" s="139"/>
-      <c r="B91" s="139"/>
-      <c r="C91" s="138"/>
+      <c r="A91" s="142"/>
+      <c r="B91" s="142"/>
+      <c r="C91" s="135"/>
       <c r="D91" s="55" t="s">
         <v>393</v>
       </c>
@@ -15182,9 +15248,9 @@
       <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" ht="29">
-      <c r="A92" s="139"/>
-      <c r="B92" s="139"/>
-      <c r="C92" s="138"/>
+      <c r="A92" s="142"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="135"/>
       <c r="D92" s="55" t="s">
         <v>204</v>
       </c>
@@ -15197,9 +15263,9 @@
       <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="139"/>
-      <c r="B93" s="139"/>
-      <c r="C93" s="138"/>
+      <c r="A93" s="142"/>
+      <c r="B93" s="142"/>
+      <c r="C93" s="135"/>
       <c r="D93" s="55" t="s">
         <v>396</v>
       </c>
@@ -15212,9 +15278,9 @@
       <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" ht="29">
-      <c r="A94" s="139"/>
-      <c r="B94" s="139"/>
-      <c r="C94" s="138"/>
+      <c r="A94" s="142"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="55" t="s">
         <v>455</v>
       </c>
@@ -15229,9 +15295,9 @@
       <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="139"/>
-      <c r="B95" s="139"/>
-      <c r="C95" s="138"/>
+      <c r="A95" s="142"/>
+      <c r="B95" s="142"/>
+      <c r="C95" s="135"/>
       <c r="D95" s="55" t="s">
         <v>341</v>
       </c>
@@ -15244,9 +15310,9 @@
       <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="139"/>
-      <c r="B96" s="139"/>
-      <c r="C96" s="138"/>
+      <c r="A96" s="142"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="135"/>
       <c r="D96" s="55" t="s">
         <v>357</v>
       </c>
@@ -15263,9 +15329,9 @@
       <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" ht="29">
-      <c r="A97" s="139"/>
-      <c r="B97" s="139"/>
-      <c r="C97" s="138"/>
+      <c r="A97" s="142"/>
+      <c r="B97" s="142"/>
+      <c r="C97" s="135"/>
       <c r="D97" s="55" t="s">
         <v>464</v>
       </c>
@@ -15278,9 +15344,9 @@
       <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="139"/>
-      <c r="B98" s="139"/>
-      <c r="C98" s="138"/>
+      <c r="A98" s="142"/>
+      <c r="B98" s="142"/>
+      <c r="C98" s="135"/>
       <c r="D98" s="55" t="s">
         <v>341</v>
       </c>
@@ -15293,13 +15359,13 @@
       <c r="I98" s="7"/>
     </row>
     <row r="99" spans="1:9" ht="43.5">
-      <c r="A99" s="139" t="s">
+      <c r="A99" s="142" t="s">
         <v>242</v>
       </c>
-      <c r="B99" s="139" t="s">
+      <c r="B99" s="142" t="s">
         <v>391</v>
       </c>
-      <c r="C99" s="139" t="s">
+      <c r="C99" s="142" t="s">
         <v>392</v>
       </c>
       <c r="D99" s="55" t="s">
@@ -15316,9 +15382,9 @@
       <c r="I99" s="7"/>
     </row>
     <row r="100" spans="1:9" ht="29">
-      <c r="A100" s="139"/>
-      <c r="B100" s="139"/>
-      <c r="C100" s="139"/>
+      <c r="A100" s="142"/>
+      <c r="B100" s="142"/>
+      <c r="C100" s="142"/>
       <c r="D100" s="55" t="s">
         <v>204</v>
       </c>
@@ -15331,9 +15397,9 @@
       <c r="I100" s="7"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="139"/>
-      <c r="B101" s="139"/>
-      <c r="C101" s="139"/>
+      <c r="A101" s="142"/>
+      <c r="B101" s="142"/>
+      <c r="C101" s="142"/>
       <c r="D101" s="55" t="s">
         <v>396</v>
       </c>
@@ -15346,9 +15412,9 @@
       <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="139"/>
-      <c r="B102" s="139"/>
-      <c r="C102" s="139"/>
+      <c r="A102" s="142"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="142"/>
       <c r="D102" s="55" t="s">
         <v>398</v>
       </c>
@@ -15363,9 +15429,9 @@
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="139"/>
-      <c r="B103" s="139"/>
-      <c r="C103" s="139"/>
+      <c r="A103" s="142"/>
+      <c r="B103" s="142"/>
+      <c r="C103" s="142"/>
       <c r="D103" s="55" t="s">
         <v>341</v>
       </c>
@@ -15378,9 +15444,9 @@
       <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="139"/>
-      <c r="B104" s="139"/>
-      <c r="C104" s="139"/>
+      <c r="A104" s="142"/>
+      <c r="B104" s="142"/>
+      <c r="C104" s="142"/>
       <c r="D104" s="55" t="s">
         <v>357</v>
       </c>
@@ -15397,9 +15463,9 @@
       <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" ht="29">
-      <c r="A105" s="139"/>
-      <c r="B105" s="139"/>
-      <c r="C105" s="139"/>
+      <c r="A105" s="142"/>
+      <c r="B105" s="142"/>
+      <c r="C105" s="142"/>
       <c r="D105" s="55" t="s">
         <v>464</v>
       </c>
@@ -15412,9 +15478,9 @@
       <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="139"/>
-      <c r="B106" s="139"/>
-      <c r="C106" s="139"/>
+      <c r="A106" s="142"/>
+      <c r="B106" s="142"/>
+      <c r="C106" s="142"/>
       <c r="D106" s="55" t="s">
         <v>341</v>
       </c>
@@ -15427,13 +15493,13 @@
       <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" ht="43.5">
-      <c r="A107" s="139" t="s">
+      <c r="A107" s="142" t="s">
         <v>243</v>
       </c>
-      <c r="B107" s="139" t="s">
+      <c r="B107" s="142" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="139" t="s">
+      <c r="C107" s="142" t="s">
         <v>235</v>
       </c>
       <c r="D107" s="55" t="s">
@@ -15450,9 +15516,9 @@
       <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="139"/>
-      <c r="B108" s="139"/>
-      <c r="C108" s="139"/>
+      <c r="A108" s="142"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="142"/>
       <c r="D108" s="55" t="s">
         <v>383</v>
       </c>
@@ -15465,9 +15531,9 @@
       <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="139"/>
-      <c r="B109" s="139"/>
-      <c r="C109" s="139"/>
+      <c r="A109" s="142"/>
+      <c r="B109" s="142"/>
+      <c r="C109" s="142"/>
       <c r="D109" s="55" t="s">
         <v>385</v>
       </c>
@@ -15480,9 +15546,9 @@
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="139"/>
-      <c r="B110" s="139"/>
-      <c r="C110" s="139"/>
+      <c r="A110" s="142"/>
+      <c r="B110" s="142"/>
+      <c r="C110" s="142"/>
       <c r="D110" s="55" t="s">
         <v>341</v>
       </c>
@@ -15495,9 +15561,9 @@
       <c r="I110" s="7"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="139"/>
-      <c r="B111" s="139"/>
-      <c r="C111" s="139"/>
+      <c r="A111" s="142"/>
+      <c r="B111" s="142"/>
+      <c r="C111" s="142"/>
       <c r="D111" s="55" t="s">
         <v>370</v>
       </c>
@@ -15514,9 +15580,9 @@
       <c r="I111" s="7"/>
     </row>
     <row r="112" spans="1:9" ht="29">
-      <c r="A112" s="139"/>
-      <c r="B112" s="139"/>
-      <c r="C112" s="139"/>
+      <c r="A112" s="142"/>
+      <c r="B112" s="142"/>
+      <c r="C112" s="142"/>
       <c r="D112" s="55" t="s">
         <v>381</v>
       </c>
@@ -15529,9 +15595,9 @@
       <c r="I112" s="7"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="139"/>
-      <c r="B113" s="139"/>
-      <c r="C113" s="139"/>
+      <c r="A113" s="142"/>
+      <c r="B113" s="142"/>
+      <c r="C113" s="142"/>
       <c r="D113" s="55" t="s">
         <v>341</v>
       </c>
@@ -15544,9 +15610,9 @@
       <c r="I113" s="7"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="139"/>
-      <c r="B114" s="139"/>
-      <c r="C114" s="139"/>
+      <c r="A114" s="142"/>
+      <c r="B114" s="142"/>
+      <c r="C114" s="142"/>
       <c r="D114" s="55" t="s">
         <v>357</v>
       </c>
@@ -15563,9 +15629,9 @@
       <c r="I114" s="7"/>
     </row>
     <row r="115" spans="1:9" ht="29">
-      <c r="A115" s="139"/>
-      <c r="B115" s="139"/>
-      <c r="C115" s="139"/>
+      <c r="A115" s="142"/>
+      <c r="B115" s="142"/>
+      <c r="C115" s="142"/>
       <c r="D115" s="55" t="s">
         <v>381</v>
       </c>
@@ -15578,9 +15644,9 @@
       <c r="I115" s="7"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="139"/>
-      <c r="B116" s="139"/>
-      <c r="C116" s="139"/>
+      <c r="A116" s="142"/>
+      <c r="B116" s="142"/>
+      <c r="C116" s="142"/>
       <c r="D116" s="55" t="s">
         <v>341</v>
       </c>
@@ -15593,13 +15659,13 @@
       <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" ht="43.5">
-      <c r="A117" s="139" t="s">
+      <c r="A117" s="142" t="s">
         <v>244</v>
       </c>
-      <c r="B117" s="139" t="s">
+      <c r="B117" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="139" t="s">
+      <c r="C117" s="142" t="s">
         <v>214</v>
       </c>
       <c r="D117" s="55" t="s">
@@ -15616,9 +15682,9 @@
       <c r="I117" s="7"/>
     </row>
     <row r="118" spans="1:9" ht="43.5">
-      <c r="A118" s="139"/>
-      <c r="B118" s="139"/>
-      <c r="C118" s="139"/>
+      <c r="A118" s="142"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="142"/>
       <c r="D118" s="55" t="s">
         <v>405</v>
       </c>
@@ -15633,9 +15699,9 @@
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="139"/>
-      <c r="B119" s="139"/>
-      <c r="C119" s="139"/>
+      <c r="A119" s="142"/>
+      <c r="B119" s="142"/>
+      <c r="C119" s="142"/>
       <c r="D119" s="55" t="s">
         <v>470</v>
       </c>
@@ -15648,9 +15714,9 @@
       <c r="I119" s="7"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="139"/>
-      <c r="B120" s="139"/>
-      <c r="C120" s="139"/>
+      <c r="A120" s="142"/>
+      <c r="B120" s="142"/>
+      <c r="C120" s="142"/>
       <c r="D120" s="55" t="s">
         <v>471</v>
       </c>
@@ -15663,9 +15729,9 @@
       <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="139"/>
-      <c r="B121" s="139"/>
-      <c r="C121" s="139"/>
+      <c r="A121" s="142"/>
+      <c r="B121" s="142"/>
+      <c r="C121" s="142"/>
       <c r="D121" s="55" t="s">
         <v>472</v>
       </c>
@@ -15678,9 +15744,9 @@
       <c r="I121" s="7"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="139"/>
-      <c r="B122" s="139"/>
-      <c r="C122" s="139"/>
+      <c r="A122" s="142"/>
+      <c r="B122" s="142"/>
+      <c r="C122" s="142"/>
       <c r="D122" s="55" t="s">
         <v>474</v>
       </c>
@@ -15695,9 +15761,9 @@
       <c r="I122" s="7"/>
     </row>
     <row r="123" spans="1:9" ht="29">
-      <c r="A123" s="139"/>
-      <c r="B123" s="139"/>
-      <c r="C123" s="139"/>
+      <c r="A123" s="142"/>
+      <c r="B123" s="142"/>
+      <c r="C123" s="142"/>
       <c r="D123" s="55" t="s">
         <v>477</v>
       </c>
@@ -15710,9 +15776,9 @@
       <c r="I123" s="7"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="139"/>
-      <c r="B124" s="139"/>
-      <c r="C124" s="139"/>
+      <c r="A124" s="142"/>
+      <c r="B124" s="142"/>
+      <c r="C124" s="142"/>
       <c r="D124" s="55" t="s">
         <v>341</v>
       </c>
@@ -15725,13 +15791,13 @@
       <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" ht="43.5">
-      <c r="A125" s="139" t="s">
+      <c r="A125" s="142" t="s">
         <v>245</v>
       </c>
-      <c r="B125" s="139" t="s">
+      <c r="B125" s="142" t="s">
         <v>479</v>
       </c>
-      <c r="C125" s="139" t="s">
+      <c r="C125" s="142" t="s">
         <v>214</v>
       </c>
       <c r="D125" s="55" t="s">
@@ -15748,9 +15814,9 @@
       <c r="I125" s="7"/>
     </row>
     <row r="126" spans="1:9" ht="43.5">
-      <c r="A126" s="139"/>
-      <c r="B126" s="139"/>
-      <c r="C126" s="139"/>
+      <c r="A126" s="142"/>
+      <c r="B126" s="142"/>
+      <c r="C126" s="142"/>
       <c r="D126" s="55" t="s">
         <v>405</v>
       </c>
@@ -15765,9 +15831,9 @@
       <c r="I126" s="7"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="139"/>
-      <c r="B127" s="139"/>
-      <c r="C127" s="139"/>
+      <c r="A127" s="142"/>
+      <c r="B127" s="142"/>
+      <c r="C127" s="142"/>
       <c r="D127" s="55" t="s">
         <v>470</v>
       </c>
@@ -15780,9 +15846,9 @@
       <c r="I127" s="7"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="139"/>
-      <c r="B128" s="139"/>
-      <c r="C128" s="139"/>
+      <c r="A128" s="142"/>
+      <c r="B128" s="142"/>
+      <c r="C128" s="142"/>
       <c r="D128" s="55" t="s">
         <v>471</v>
       </c>
@@ -15795,9 +15861,9 @@
       <c r="I128" s="7"/>
     </row>
     <row r="129" spans="1:9" ht="29">
-      <c r="A129" s="139"/>
-      <c r="B129" s="139"/>
-      <c r="C129" s="139"/>
+      <c r="A129" s="142"/>
+      <c r="B129" s="142"/>
+      <c r="C129" s="142"/>
       <c r="D129" s="55" t="s">
         <v>204</v>
       </c>
@@ -15810,9 +15876,9 @@
       <c r="I129" s="7"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="139"/>
-      <c r="B130" s="139"/>
-      <c r="C130" s="139"/>
+      <c r="A130" s="142"/>
+      <c r="B130" s="142"/>
+      <c r="C130" s="142"/>
       <c r="D130" s="55" t="s">
         <v>396</v>
       </c>
@@ -15825,9 +15891,9 @@
       <c r="I130" s="7"/>
     </row>
     <row r="131" spans="1:9" ht="26">
-      <c r="A131" s="139"/>
-      <c r="B131" s="139"/>
-      <c r="C131" s="139"/>
+      <c r="A131" s="142"/>
+      <c r="B131" s="142"/>
+      <c r="C131" s="142"/>
       <c r="D131" s="55" t="s">
         <v>455</v>
       </c>
@@ -15842,9 +15908,9 @@
       <c r="I131" s="7"/>
     </row>
     <row r="132" spans="1:9" ht="29">
-      <c r="A132" s="139"/>
-      <c r="B132" s="139"/>
-      <c r="C132" s="139"/>
+      <c r="A132" s="142"/>
+      <c r="B132" s="142"/>
+      <c r="C132" s="142"/>
       <c r="D132" s="55" t="s">
         <v>477</v>
       </c>
@@ -15857,9 +15923,9 @@
       <c r="I132" s="7"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="139"/>
-      <c r="B133" s="139"/>
-      <c r="C133" s="139"/>
+      <c r="A133" s="142"/>
+      <c r="B133" s="142"/>
+      <c r="C133" s="142"/>
       <c r="D133" s="55" t="s">
         <v>341</v>
       </c>
@@ -15872,13 +15938,13 @@
       <c r="I133" s="7"/>
     </row>
     <row r="134" spans="1:9" ht="43.5">
-      <c r="A134" s="139" t="s">
+      <c r="A134" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="B134" s="139" t="s">
+      <c r="B134" s="142" t="s">
         <v>480</v>
       </c>
-      <c r="C134" s="139" t="s">
+      <c r="C134" s="142" t="s">
         <v>481</v>
       </c>
       <c r="D134" s="55" t="s">
@@ -15895,9 +15961,9 @@
       <c r="I134" s="7"/>
     </row>
     <row r="135" spans="1:9" ht="43.5">
-      <c r="A135" s="139"/>
-      <c r="B135" s="139"/>
-      <c r="C135" s="139"/>
+      <c r="A135" s="142"/>
+      <c r="B135" s="142"/>
+      <c r="C135" s="142"/>
       <c r="D135" s="55" t="s">
         <v>405</v>
       </c>
@@ -15912,9 +15978,9 @@
       <c r="I135" s="7"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="139"/>
-      <c r="B136" s="139"/>
-      <c r="C136" s="139"/>
+      <c r="A136" s="142"/>
+      <c r="B136" s="142"/>
+      <c r="C136" s="142"/>
       <c r="D136" s="55" t="s">
         <v>470</v>
       </c>
@@ -15927,9 +15993,9 @@
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="139"/>
-      <c r="B137" s="139"/>
-      <c r="C137" s="139"/>
+      <c r="A137" s="142"/>
+      <c r="B137" s="142"/>
+      <c r="C137" s="142"/>
       <c r="D137" s="55" t="s">
         <v>471</v>
       </c>
@@ -15942,9 +16008,9 @@
       <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="139"/>
-      <c r="B138" s="139"/>
-      <c r="C138" s="139"/>
+      <c r="A138" s="142"/>
+      <c r="B138" s="142"/>
+      <c r="C138" s="142"/>
       <c r="D138" s="55" t="s">
         <v>472</v>
       </c>
@@ -15957,9 +16023,9 @@
       <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="139"/>
-      <c r="B139" s="139"/>
-      <c r="C139" s="139"/>
+      <c r="A139" s="142"/>
+      <c r="B139" s="142"/>
+      <c r="C139" s="142"/>
       <c r="D139" s="55" t="s">
         <v>474</v>
       </c>
@@ -15974,9 +16040,9 @@
       <c r="I139" s="7"/>
     </row>
     <row r="140" spans="1:9" ht="29">
-      <c r="A140" s="139"/>
-      <c r="B140" s="139"/>
-      <c r="C140" s="139"/>
+      <c r="A140" s="142"/>
+      <c r="B140" s="142"/>
+      <c r="C140" s="142"/>
       <c r="D140" s="55" t="s">
         <v>477</v>
       </c>
@@ -15989,9 +16055,9 @@
       <c r="I140" s="7"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="139"/>
-      <c r="B141" s="139"/>
-      <c r="C141" s="139"/>
+      <c r="A141" s="142"/>
+      <c r="B141" s="142"/>
+      <c r="C141" s="142"/>
       <c r="D141" s="55" t="s">
         <v>341</v>
       </c>
@@ -16004,9 +16070,9 @@
       <c r="I141" s="7"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="139"/>
-      <c r="B142" s="139"/>
-      <c r="C142" s="139"/>
+      <c r="A142" s="142"/>
+      <c r="B142" s="142"/>
+      <c r="C142" s="142"/>
       <c r="D142" s="55" t="s">
         <v>357</v>
       </c>
@@ -16023,9 +16089,9 @@
       <c r="I142" s="7"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="139"/>
-      <c r="B143" s="139"/>
-      <c r="C143" s="139"/>
+      <c r="A143" s="142"/>
+      <c r="B143" s="142"/>
+      <c r="C143" s="142"/>
       <c r="D143" s="55" t="s">
         <v>406</v>
       </c>
@@ -16038,9 +16104,9 @@
       <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:9" ht="29">
-      <c r="A144" s="139"/>
-      <c r="B144" s="139"/>
-      <c r="C144" s="139"/>
+      <c r="A144" s="142"/>
+      <c r="B144" s="142"/>
+      <c r="C144" s="142"/>
       <c r="D144" s="55" t="s">
         <v>408</v>
       </c>
@@ -16053,9 +16119,9 @@
       <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="139"/>
-      <c r="B145" s="139"/>
-      <c r="C145" s="139"/>
+      <c r="A145" s="142"/>
+      <c r="B145" s="142"/>
+      <c r="C145" s="142"/>
       <c r="D145" s="55" t="s">
         <v>341</v>
       </c>
@@ -16068,13 +16134,13 @@
       <c r="I145" s="7"/>
     </row>
     <row r="146" spans="1:9" ht="43.5">
-      <c r="A146" s="139" t="s">
+      <c r="A146" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="B146" s="138" t="s">
+      <c r="B146" s="135" t="s">
         <v>368</v>
       </c>
-      <c r="C146" s="138" t="s">
+      <c r="C146" s="135" t="s">
         <v>369</v>
       </c>
       <c r="D146" s="55" t="s">
@@ -16091,9 +16157,9 @@
       <c r="I146" s="7"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="139"/>
-      <c r="B147" s="138"/>
-      <c r="C147" s="138"/>
+      <c r="A147" s="142"/>
+      <c r="B147" s="135"/>
+      <c r="C147" s="135"/>
       <c r="D147" s="55" t="s">
         <v>365</v>
       </c>
@@ -16108,9 +16174,9 @@
       <c r="I147" s="7"/>
     </row>
     <row r="148" spans="1:9" ht="29">
-      <c r="A148" s="139"/>
-      <c r="B148" s="138"/>
-      <c r="C148" s="138"/>
+      <c r="A148" s="142"/>
+      <c r="B148" s="135"/>
+      <c r="C148" s="135"/>
       <c r="D148" s="55" t="s">
         <v>339</v>
       </c>
@@ -16123,9 +16189,9 @@
       <c r="I148" s="7"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="139"/>
-      <c r="B149" s="138"/>
-      <c r="C149" s="138"/>
+      <c r="A149" s="142"/>
+      <c r="B149" s="135"/>
+      <c r="C149" s="135"/>
       <c r="D149" s="55" t="s">
         <v>341</v>
       </c>
@@ -16138,9 +16204,9 @@
       <c r="I149" s="7"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="139"/>
-      <c r="B150" s="138"/>
-      <c r="C150" s="138"/>
+      <c r="A150" s="142"/>
+      <c r="B150" s="135"/>
+      <c r="C150" s="135"/>
       <c r="D150" s="55" t="s">
         <v>357</v>
       </c>
@@ -16157,9 +16223,9 @@
       <c r="I150" s="7"/>
     </row>
     <row r="151" spans="1:9" ht="29">
-      <c r="A151" s="139"/>
-      <c r="B151" s="138"/>
-      <c r="C151" s="138"/>
+      <c r="A151" s="142"/>
+      <c r="B151" s="135"/>
+      <c r="C151" s="135"/>
       <c r="D151" s="55" t="s">
         <v>361</v>
       </c>
@@ -16172,9 +16238,9 @@
       <c r="I151" s="7"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="139"/>
-      <c r="B152" s="138"/>
-      <c r="C152" s="138"/>
+      <c r="A152" s="142"/>
+      <c r="B152" s="135"/>
+      <c r="C152" s="135"/>
       <c r="D152" s="55" t="s">
         <v>341</v>
       </c>
@@ -16187,13 +16253,13 @@
       <c r="I152" s="7"/>
     </row>
     <row r="153" spans="1:9" ht="43.5">
-      <c r="A153" s="139" t="s">
+      <c r="A153" s="142" t="s">
         <v>318</v>
       </c>
-      <c r="B153" s="138" t="s">
+      <c r="B153" s="135" t="s">
         <v>368</v>
       </c>
-      <c r="C153" s="138" t="s">
+      <c r="C153" s="135" t="s">
         <v>483</v>
       </c>
       <c r="D153" s="55" t="s">
@@ -16210,9 +16276,9 @@
       <c r="I153" s="7"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="139"/>
-      <c r="B154" s="138"/>
-      <c r="C154" s="138"/>
+      <c r="A154" s="142"/>
+      <c r="B154" s="135"/>
+      <c r="C154" s="135"/>
       <c r="D154" s="55" t="s">
         <v>365</v>
       </c>
@@ -16227,9 +16293,9 @@
       <c r="I154" s="7"/>
     </row>
     <row r="155" spans="1:9" ht="29">
-      <c r="A155" s="139"/>
-      <c r="B155" s="138"/>
-      <c r="C155" s="138"/>
+      <c r="A155" s="142"/>
+      <c r="B155" s="135"/>
+      <c r="C155" s="135"/>
       <c r="D155" s="55" t="s">
         <v>339</v>
       </c>
@@ -16242,9 +16308,9 @@
       <c r="I155" s="7"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="139"/>
-      <c r="B156" s="138"/>
-      <c r="C156" s="138"/>
+      <c r="A156" s="142"/>
+      <c r="B156" s="135"/>
+      <c r="C156" s="135"/>
       <c r="D156" s="55" t="s">
         <v>341</v>
       </c>
@@ -16257,9 +16323,9 @@
       <c r="I156" s="7"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="139"/>
-      <c r="B157" s="138"/>
-      <c r="C157" s="138"/>
+      <c r="A157" s="142"/>
+      <c r="B157" s="135"/>
+      <c r="C157" s="135"/>
       <c r="D157" s="55" t="s">
         <v>370</v>
       </c>
@@ -16276,9 +16342,9 @@
       <c r="I157" s="7"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="139"/>
-      <c r="B158" s="138"/>
-      <c r="C158" s="138"/>
+      <c r="A158" s="142"/>
+      <c r="B158" s="135"/>
+      <c r="C158" s="135"/>
       <c r="D158" s="55" t="s">
         <v>374</v>
       </c>
@@ -16291,9 +16357,9 @@
       <c r="I158" s="7"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="139"/>
-      <c r="B159" s="138"/>
-      <c r="C159" s="138"/>
+      <c r="A159" s="142"/>
+      <c r="B159" s="135"/>
+      <c r="C159" s="135"/>
       <c r="D159" s="55" t="s">
         <v>376</v>
       </c>
@@ -16308,9 +16374,9 @@
       <c r="I159" s="7"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="139"/>
-      <c r="B160" s="138"/>
-      <c r="C160" s="138"/>
+      <c r="A160" s="142"/>
+      <c r="B160" s="135"/>
+      <c r="C160" s="135"/>
       <c r="D160" s="55" t="s">
         <v>341</v>
       </c>
@@ -16323,13 +16389,13 @@
       <c r="I160" s="7"/>
     </row>
     <row r="161" spans="1:9" ht="29">
-      <c r="A161" s="136" t="s">
+      <c r="A161" s="143" t="s">
         <v>518</v>
       </c>
-      <c r="B161" s="136" t="s">
+      <c r="B161" s="143" t="s">
         <v>414</v>
       </c>
-      <c r="C161" s="137" t="s">
+      <c r="C161" s="144" t="s">
         <v>415</v>
       </c>
       <c r="D161" s="61" t="s">
@@ -16346,9 +16412,9 @@
       <c r="I161" s="7"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="136"/>
-      <c r="B162" s="136"/>
-      <c r="C162" s="137"/>
+      <c r="A162" s="143"/>
+      <c r="B162" s="143"/>
+      <c r="C162" s="144"/>
       <c r="D162" s="61" t="s">
         <v>265</v>
       </c>
@@ -16363,9 +16429,9 @@
       <c r="I162" s="7"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="136"/>
-      <c r="B163" s="136"/>
-      <c r="C163" s="137"/>
+      <c r="A163" s="143"/>
+      <c r="B163" s="143"/>
+      <c r="C163" s="144"/>
       <c r="D163" s="62" t="s">
         <v>252</v>
       </c>
@@ -16380,9 +16446,9 @@
       <c r="I163" s="7"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="136"/>
-      <c r="B164" s="136"/>
-      <c r="C164" s="137"/>
+      <c r="A164" s="143"/>
+      <c r="B164" s="143"/>
+      <c r="C164" s="144"/>
       <c r="D164" s="62" t="s">
         <v>416</v>
       </c>
@@ -16397,9 +16463,9 @@
       <c r="I164" s="7"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="136"/>
-      <c r="B165" s="136"/>
-      <c r="C165" s="137"/>
+      <c r="A165" s="143"/>
+      <c r="B165" s="143"/>
+      <c r="C165" s="144"/>
       <c r="D165" s="62" t="s">
         <v>484</v>
       </c>
@@ -16412,9 +16478,9 @@
       <c r="I165" s="7"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="136"/>
-      <c r="B166" s="136"/>
-      <c r="C166" s="137"/>
+      <c r="A166" s="143"/>
+      <c r="B166" s="143"/>
+      <c r="C166" s="144"/>
       <c r="D166" s="61" t="s">
         <v>266</v>
       </c>
@@ -16429,9 +16495,9 @@
       <c r="I166" s="7"/>
     </row>
     <row r="167" spans="1:9" ht="26">
-      <c r="A167" s="136"/>
-      <c r="B167" s="136"/>
-      <c r="C167" s="137"/>
+      <c r="A167" s="143"/>
+      <c r="B167" s="143"/>
+      <c r="C167" s="144"/>
       <c r="D167" s="61" t="s">
         <v>419</v>
       </c>
@@ -16446,9 +16512,9 @@
       <c r="I167" s="7"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="136"/>
-      <c r="B168" s="136"/>
-      <c r="C168" s="137"/>
+      <c r="A168" s="143"/>
+      <c r="B168" s="143"/>
+      <c r="C168" s="144"/>
       <c r="D168" s="62" t="s">
         <v>487</v>
       </c>
@@ -16461,9 +16527,9 @@
       <c r="I168" s="7"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="136"/>
-      <c r="B169" s="136"/>
-      <c r="C169" s="137"/>
+      <c r="A169" s="143"/>
+      <c r="B169" s="143"/>
+      <c r="C169" s="144"/>
       <c r="D169" s="62"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62" t="s">
@@ -16474,9 +16540,9 @@
       <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="136"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="137"/>
+      <c r="A170" s="143"/>
+      <c r="B170" s="143"/>
+      <c r="C170" s="144"/>
       <c r="D170" s="62"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62" t="s">
@@ -16487,9 +16553,9 @@
       <c r="I170" s="7"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="136"/>
-      <c r="B171" s="136"/>
-      <c r="C171" s="137"/>
+      <c r="A171" s="143"/>
+      <c r="B171" s="143"/>
+      <c r="C171" s="144"/>
       <c r="D171" s="62"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
@@ -16498,9 +16564,9 @@
       <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="136"/>
-      <c r="B172" s="136"/>
-      <c r="C172" s="137"/>
+      <c r="A172" s="143"/>
+      <c r="B172" s="143"/>
+      <c r="C172" s="144"/>
       <c r="D172" s="62"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
@@ -16509,13 +16575,13 @@
       <c r="I172" s="7"/>
     </row>
     <row r="173" spans="1:9" ht="29">
-      <c r="A173" s="136" t="s">
+      <c r="A173" s="143" t="s">
         <v>320</v>
       </c>
-      <c r="B173" s="136" t="s">
+      <c r="B173" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="C173" s="137" t="s">
+      <c r="C173" s="144" t="s">
         <v>491</v>
       </c>
       <c r="D173" s="61" t="s">
@@ -16532,9 +16598,9 @@
       <c r="I173" s="7"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="136"/>
-      <c r="B174" s="136"/>
-      <c r="C174" s="137"/>
+      <c r="A174" s="143"/>
+      <c r="B174" s="143"/>
+      <c r="C174" s="144"/>
       <c r="D174" s="61" t="s">
         <v>265</v>
       </c>
@@ -16547,9 +16613,9 @@
       <c r="I174" s="7"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="136"/>
-      <c r="B175" s="136"/>
-      <c r="C175" s="137"/>
+      <c r="A175" s="143"/>
+      <c r="B175" s="143"/>
+      <c r="C175" s="144"/>
       <c r="D175" s="61" t="s">
         <v>266</v>
       </c>
@@ -16566,9 +16632,9 @@
       <c r="I175" s="7"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="136"/>
-      <c r="B176" s="136"/>
-      <c r="C176" s="137"/>
+      <c r="A176" s="143"/>
+      <c r="B176" s="143"/>
+      <c r="C176" s="144"/>
       <c r="D176" s="61" t="s">
         <v>269</v>
       </c>
@@ -16581,9 +16647,9 @@
       <c r="I176" s="7"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="136"/>
-      <c r="B177" s="136"/>
-      <c r="C177" s="137"/>
+      <c r="A177" s="143"/>
+      <c r="B177" s="143"/>
+      <c r="C177" s="144"/>
       <c r="D177" s="61" t="s">
         <v>271</v>
       </c>
@@ -16596,9 +16662,9 @@
       <c r="I177" s="7"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="136"/>
-      <c r="B178" s="136"/>
-      <c r="C178" s="137"/>
+      <c r="A178" s="143"/>
+      <c r="B178" s="143"/>
+      <c r="C178" s="144"/>
       <c r="D178" s="61" t="s">
         <v>276</v>
       </c>
@@ -16613,9 +16679,9 @@
       <c r="I178" s="7"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="136"/>
-      <c r="B179" s="136"/>
-      <c r="C179" s="137"/>
+      <c r="A179" s="143"/>
+      <c r="B179" s="143"/>
+      <c r="C179" s="144"/>
       <c r="D179" s="61" t="s">
         <v>278</v>
       </c>
@@ -16630,9 +16696,9 @@
       <c r="I179" s="7"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="136"/>
-      <c r="B180" s="136"/>
-      <c r="C180" s="137"/>
+      <c r="A180" s="143"/>
+      <c r="B180" s="143"/>
+      <c r="C180" s="144"/>
       <c r="D180" s="62" t="s">
         <v>492</v>
       </c>
@@ -16647,9 +16713,9 @@
       <c r="I180" s="7"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="136"/>
-      <c r="B181" s="136"/>
-      <c r="C181" s="137"/>
+      <c r="A181" s="143"/>
+      <c r="B181" s="143"/>
+      <c r="C181" s="144"/>
       <c r="D181" s="62" t="s">
         <v>494</v>
       </c>
@@ -16662,9 +16728,9 @@
       <c r="I181" s="7"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="136"/>
-      <c r="B182" s="136"/>
-      <c r="C182" s="137"/>
+      <c r="A182" s="143"/>
+      <c r="B182" s="143"/>
+      <c r="C182" s="144"/>
       <c r="D182" s="61" t="s">
         <v>266</v>
       </c>
@@ -16679,9 +16745,9 @@
       <c r="I182" s="7"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="136"/>
-      <c r="B183" s="136"/>
-      <c r="C183" s="137"/>
+      <c r="A183" s="143"/>
+      <c r="B183" s="143"/>
+      <c r="C183" s="144"/>
       <c r="D183" s="61" t="s">
         <v>419</v>
       </c>
@@ -16694,9 +16760,9 @@
       <c r="I183" s="7"/>
     </row>
     <row r="184" spans="1:9" ht="26">
-      <c r="A184" s="136"/>
-      <c r="B184" s="136"/>
-      <c r="C184" s="137"/>
+      <c r="A184" s="143"/>
+      <c r="B184" s="143"/>
+      <c r="C184" s="144"/>
       <c r="D184" s="62" t="s">
         <v>427</v>
       </c>
@@ -16711,13 +16777,13 @@
       <c r="I184" s="7"/>
     </row>
     <row r="185" spans="1:9" ht="29">
-      <c r="A185" s="136" t="s">
+      <c r="A185" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="B185" s="136" t="s">
+      <c r="B185" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="C185" s="136" t="s">
+      <c r="C185" s="143" t="s">
         <v>497</v>
       </c>
       <c r="D185" s="61" t="s">
@@ -16734,9 +16800,9 @@
       <c r="I185" s="7"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="136"/>
-      <c r="B186" s="136"/>
-      <c r="C186" s="136"/>
+      <c r="A186" s="143"/>
+      <c r="B186" s="143"/>
+      <c r="C186" s="143"/>
       <c r="D186" s="61" t="s">
         <v>265</v>
       </c>
@@ -16749,9 +16815,9 @@
       <c r="I186" s="7"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="136"/>
-      <c r="B187" s="136"/>
-      <c r="C187" s="136"/>
+      <c r="A187" s="143"/>
+      <c r="B187" s="143"/>
+      <c r="C187" s="143"/>
       <c r="D187" s="61" t="s">
         <v>266</v>
       </c>
@@ -16768,9 +16834,9 @@
       <c r="I187" s="7"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="136"/>
-      <c r="B188" s="136"/>
-      <c r="C188" s="136"/>
+      <c r="A188" s="143"/>
+      <c r="B188" s="143"/>
+      <c r="C188" s="143"/>
       <c r="D188" s="61" t="s">
         <v>269</v>
       </c>
@@ -16783,9 +16849,9 @@
       <c r="I188" s="7"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="136"/>
-      <c r="B189" s="136"/>
-      <c r="C189" s="136"/>
+      <c r="A189" s="143"/>
+      <c r="B189" s="143"/>
+      <c r="C189" s="143"/>
       <c r="D189" s="61" t="s">
         <v>271</v>
       </c>
@@ -16798,9 +16864,9 @@
       <c r="I189" s="7"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="136"/>
-      <c r="B190" s="136"/>
-      <c r="C190" s="136"/>
+      <c r="A190" s="143"/>
+      <c r="B190" s="143"/>
+      <c r="C190" s="143"/>
       <c r="D190" s="61" t="s">
         <v>276</v>
       </c>
@@ -16815,9 +16881,9 @@
       <c r="I190" s="7"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="136"/>
-      <c r="B191" s="136"/>
-      <c r="C191" s="136"/>
+      <c r="A191" s="143"/>
+      <c r="B191" s="143"/>
+      <c r="C191" s="143"/>
       <c r="D191" s="61" t="s">
         <v>278</v>
       </c>
@@ -16832,9 +16898,9 @@
       <c r="I191" s="7"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="136"/>
-      <c r="B192" s="136"/>
-      <c r="C192" s="136"/>
+      <c r="A192" s="143"/>
+      <c r="B192" s="143"/>
+      <c r="C192" s="143"/>
       <c r="D192" s="62" t="s">
         <v>492</v>
       </c>
@@ -16849,9 +16915,9 @@
       <c r="I192" s="7"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="136"/>
-      <c r="B193" s="136"/>
-      <c r="C193" s="136"/>
+      <c r="A193" s="143"/>
+      <c r="B193" s="143"/>
+      <c r="C193" s="143"/>
       <c r="D193" s="62" t="s">
         <v>498</v>
       </c>
@@ -16864,9 +16930,9 @@
       <c r="I193" s="7"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="136"/>
-      <c r="B194" s="136"/>
-      <c r="C194" s="136"/>
+      <c r="A194" s="143"/>
+      <c r="B194" s="143"/>
+      <c r="C194" s="143"/>
       <c r="D194" s="61" t="s">
         <v>266</v>
       </c>
@@ -16879,9 +16945,9 @@
       <c r="I194" s="7"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="136"/>
-      <c r="B195" s="136"/>
-      <c r="C195" s="136"/>
+      <c r="A195" s="143"/>
+      <c r="B195" s="143"/>
+      <c r="C195" s="143"/>
       <c r="D195" s="61" t="s">
         <v>419</v>
       </c>
@@ -16896,9 +16962,9 @@
       <c r="I195" s="7"/>
     </row>
     <row r="196" spans="1:9" ht="26">
-      <c r="A196" s="136"/>
-      <c r="B196" s="136"/>
-      <c r="C196" s="136"/>
+      <c r="A196" s="143"/>
+      <c r="B196" s="143"/>
+      <c r="C196" s="143"/>
       <c r="D196" s="62" t="s">
         <v>427</v>
       </c>
@@ -16911,9 +16977,9 @@
       <c r="I196" s="7"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="136"/>
-      <c r="B197" s="136"/>
-      <c r="C197" s="136"/>
+      <c r="A197" s="143"/>
+      <c r="B197" s="143"/>
+      <c r="C197" s="143"/>
       <c r="D197" s="62" t="s">
         <v>502</v>
       </c>
@@ -16928,13 +16994,13 @@
       <c r="I197" s="7"/>
     </row>
     <row r="198" spans="1:9" ht="29">
-      <c r="A198" s="136" t="s">
+      <c r="A198" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="136" t="s">
+      <c r="B198" s="143" t="s">
         <v>293</v>
       </c>
-      <c r="C198" s="137" t="s">
+      <c r="C198" s="144" t="s">
         <v>503</v>
       </c>
       <c r="D198" s="61" t="s">
@@ -16951,9 +17017,9 @@
       <c r="I198" s="7"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="136"/>
-      <c r="B199" s="136"/>
-      <c r="C199" s="137"/>
+      <c r="A199" s="143"/>
+      <c r="B199" s="143"/>
+      <c r="C199" s="144"/>
       <c r="D199" s="61" t="s">
         <v>265</v>
       </c>
@@ -16968,9 +17034,9 @@
       <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:9" ht="26">
-      <c r="A200" s="136"/>
-      <c r="B200" s="136"/>
-      <c r="C200" s="137"/>
+      <c r="A200" s="143"/>
+      <c r="B200" s="143"/>
+      <c r="C200" s="144"/>
       <c r="D200" s="61" t="s">
         <v>266</v>
       </c>
@@ -16985,9 +17051,9 @@
       <c r="I200" s="7"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="136"/>
-      <c r="B201" s="136"/>
-      <c r="C201" s="137"/>
+      <c r="A201" s="143"/>
+      <c r="B201" s="143"/>
+      <c r="C201" s="144"/>
       <c r="D201" s="61" t="s">
         <v>269</v>
       </c>
@@ -17000,9 +17066,9 @@
       <c r="I201" s="7"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="136"/>
-      <c r="B202" s="136"/>
-      <c r="C202" s="137"/>
+      <c r="A202" s="143"/>
+      <c r="B202" s="143"/>
+      <c r="C202" s="144"/>
       <c r="D202" s="61" t="s">
         <v>271</v>
       </c>
@@ -17013,9 +17079,9 @@
       <c r="I202" s="7"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="136"/>
-      <c r="B203" s="136"/>
-      <c r="C203" s="137"/>
+      <c r="A203" s="143"/>
+      <c r="B203" s="143"/>
+      <c r="C203" s="144"/>
       <c r="D203" s="62" t="s">
         <v>507</v>
       </c>
@@ -17026,9 +17092,9 @@
       <c r="I203" s="7"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="136"/>
-      <c r="B204" s="136"/>
-      <c r="C204" s="137"/>
+      <c r="A204" s="143"/>
+      <c r="B204" s="143"/>
+      <c r="C204" s="144"/>
       <c r="D204" s="62" t="s">
         <v>508</v>
       </c>
@@ -17043,9 +17109,9 @@
       <c r="I204" s="7"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="136"/>
-      <c r="B205" s="136"/>
-      <c r="C205" s="137"/>
+      <c r="A205" s="143"/>
+      <c r="B205" s="143"/>
+      <c r="C205" s="144"/>
       <c r="D205" s="62" t="s">
         <v>511</v>
       </c>
@@ -17058,9 +17124,9 @@
       <c r="I205" s="7"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="136"/>
-      <c r="B206" s="136"/>
-      <c r="C206" s="137"/>
+      <c r="A206" s="143"/>
+      <c r="B206" s="143"/>
+      <c r="C206" s="144"/>
       <c r="D206" s="62" t="s">
         <v>494</v>
       </c>
@@ -17071,9 +17137,9 @@
       <c r="I206" s="7"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="136"/>
-      <c r="B207" s="136"/>
-      <c r="C207" s="137"/>
+      <c r="A207" s="143"/>
+      <c r="B207" s="143"/>
+      <c r="C207" s="144"/>
       <c r="D207" s="61" t="s">
         <v>266</v>
       </c>
@@ -17084,9 +17150,9 @@
       <c r="I207" s="7"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="136"/>
-      <c r="B208" s="136"/>
-      <c r="C208" s="137"/>
+      <c r="A208" s="143"/>
+      <c r="B208" s="143"/>
+      <c r="C208" s="144"/>
       <c r="D208" s="61" t="s">
         <v>419</v>
       </c>
@@ -17103,9 +17169,9 @@
       <c r="I208" s="7"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="136"/>
-      <c r="B209" s="136"/>
-      <c r="C209" s="137"/>
+      <c r="A209" s="143"/>
+      <c r="B209" s="143"/>
+      <c r="C209" s="144"/>
       <c r="D209" s="62" t="s">
         <v>487</v>
       </c>
@@ -17118,13 +17184,13 @@
       <c r="I209" s="7"/>
     </row>
     <row r="210" spans="1:9" ht="29">
-      <c r="A210" s="136" t="s">
+      <c r="A210" s="143" t="s">
         <v>323</v>
       </c>
-      <c r="B210" s="136" t="s">
+      <c r="B210" s="143" t="s">
         <v>301</v>
       </c>
-      <c r="C210" s="137" t="s">
+      <c r="C210" s="144" t="s">
         <v>433</v>
       </c>
       <c r="D210" s="61" t="s">
@@ -17141,9 +17207,9 @@
       <c r="I210" s="7"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="136"/>
-      <c r="B211" s="136"/>
-      <c r="C211" s="137"/>
+      <c r="A211" s="143"/>
+      <c r="B211" s="143"/>
+      <c r="C211" s="144"/>
       <c r="D211" s="61" t="s">
         <v>265</v>
       </c>
@@ -17156,9 +17222,9 @@
       <c r="I211" s="7"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="136"/>
-      <c r="B212" s="136"/>
-      <c r="C212" s="137"/>
+      <c r="A212" s="143"/>
+      <c r="B212" s="143"/>
+      <c r="C212" s="144"/>
       <c r="D212" s="61" t="s">
         <v>266</v>
       </c>
@@ -17175,9 +17241,9 @@
       <c r="I212" s="7"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="136"/>
-      <c r="B213" s="136"/>
-      <c r="C213" s="137"/>
+      <c r="A213" s="143"/>
+      <c r="B213" s="143"/>
+      <c r="C213" s="144"/>
       <c r="D213" s="61" t="s">
         <v>269</v>
       </c>
@@ -17190,9 +17256,9 @@
       <c r="I213" s="7"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="136"/>
-      <c r="B214" s="136"/>
-      <c r="C214" s="137"/>
+      <c r="A214" s="143"/>
+      <c r="B214" s="143"/>
+      <c r="C214" s="144"/>
       <c r="D214" s="61" t="s">
         <v>271</v>
       </c>
@@ -17203,9 +17269,9 @@
       <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="136"/>
-      <c r="B215" s="136"/>
-      <c r="C215" s="137"/>
+      <c r="A215" s="143"/>
+      <c r="B215" s="143"/>
+      <c r="C215" s="144"/>
       <c r="D215" s="61" t="s">
         <v>276</v>
       </c>
@@ -17220,9 +17286,9 @@
       <c r="I215" s="7"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="136"/>
-      <c r="B216" s="136"/>
-      <c r="C216" s="137"/>
+      <c r="A216" s="143"/>
+      <c r="B216" s="143"/>
+      <c r="C216" s="144"/>
       <c r="D216" s="61" t="s">
         <v>278</v>
       </c>
@@ -17237,9 +17303,9 @@
       <c r="I216" s="7"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="136"/>
-      <c r="B217" s="136"/>
-      <c r="C217" s="137"/>
+      <c r="A217" s="143"/>
+      <c r="B217" s="143"/>
+      <c r="C217" s="144"/>
       <c r="D217" s="62"/>
       <c r="E217" s="62"/>
       <c r="F217" s="62" t="s">
@@ -17252,9 +17318,9 @@
       <c r="I217" s="7"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="136"/>
-      <c r="B218" s="136"/>
-      <c r="C218" s="137"/>
+      <c r="A218" s="143"/>
+      <c r="B218" s="143"/>
+      <c r="C218" s="144"/>
       <c r="D218" s="62"/>
       <c r="E218" s="62"/>
       <c r="F218" s="62" t="s">
@@ -17265,9 +17331,9 @@
       <c r="I218" s="7"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="136"/>
-      <c r="B219" s="136"/>
-      <c r="C219" s="137"/>
+      <c r="A219" s="143"/>
+      <c r="B219" s="143"/>
+      <c r="C219" s="144"/>
       <c r="D219" s="62"/>
       <c r="E219" s="62"/>
       <c r="F219" s="62" t="s">
@@ -17278,9 +17344,9 @@
       <c r="I219" s="7"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="136"/>
-      <c r="B220" s="136"/>
-      <c r="C220" s="137"/>
+      <c r="A220" s="143"/>
+      <c r="B220" s="143"/>
+      <c r="C220" s="144"/>
       <c r="D220" s="62" t="s">
         <v>434</v>
       </c>
@@ -17291,9 +17357,9 @@
       <c r="I220" s="7"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="136"/>
-      <c r="B221" s="136"/>
-      <c r="C221" s="137"/>
+      <c r="A221" s="143"/>
+      <c r="B221" s="143"/>
+      <c r="C221" s="144"/>
       <c r="D221" s="62" t="s">
         <v>435</v>
       </c>
@@ -17306,9 +17372,9 @@
       <c r="I221" s="7"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="136"/>
-      <c r="B222" s="136"/>
-      <c r="C222" s="137"/>
+      <c r="A222" s="143"/>
+      <c r="B222" s="143"/>
+      <c r="C222" s="144"/>
       <c r="D222" s="62" t="s">
         <v>307</v>
       </c>
@@ -17321,9 +17387,9 @@
       <c r="I222" s="7"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="136"/>
-      <c r="B223" s="136"/>
-      <c r="C223" s="137"/>
+      <c r="A223" s="143"/>
+      <c r="B223" s="143"/>
+      <c r="C223" s="144"/>
       <c r="D223" s="62" t="s">
         <v>492</v>
       </c>
@@ -17336,9 +17402,9 @@
       <c r="I223" s="7"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="136"/>
-      <c r="B224" s="136"/>
-      <c r="C224" s="137"/>
+      <c r="A224" s="143"/>
+      <c r="B224" s="143"/>
+      <c r="C224" s="144"/>
       <c r="D224" s="62" t="s">
         <v>498</v>
       </c>
@@ -17349,9 +17415,9 @@
       <c r="I224" s="7"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="136"/>
-      <c r="B225" s="136"/>
-      <c r="C225" s="137"/>
+      <c r="A225" s="143"/>
+      <c r="B225" s="143"/>
+      <c r="C225" s="144"/>
       <c r="D225" s="61" t="s">
         <v>266</v>
       </c>
@@ -17366,9 +17432,9 @@
       <c r="I225" s="7"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="136"/>
-      <c r="B226" s="136"/>
-      <c r="C226" s="137"/>
+      <c r="A226" s="143"/>
+      <c r="B226" s="143"/>
+      <c r="C226" s="144"/>
       <c r="D226" s="61" t="s">
         <v>419</v>
       </c>
@@ -17383,9 +17449,9 @@
       <c r="I226" s="7"/>
     </row>
     <row r="227" spans="1:9" ht="26">
-      <c r="A227" s="136"/>
-      <c r="B227" s="136"/>
-      <c r="C227" s="137"/>
+      <c r="A227" s="143"/>
+      <c r="B227" s="143"/>
+      <c r="C227" s="144"/>
       <c r="D227" s="62" t="s">
         <v>427</v>
       </c>
@@ -17398,9 +17464,9 @@
       <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="136"/>
-      <c r="B228" s="136"/>
-      <c r="C228" s="137"/>
+      <c r="A228" s="143"/>
+      <c r="B228" s="143"/>
+      <c r="C228" s="144"/>
       <c r="D228" s="62" t="s">
         <v>514</v>
       </c>
@@ -17413,9 +17479,9 @@
       <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="136"/>
-      <c r="B229" s="136"/>
-      <c r="C229" s="137"/>
+      <c r="A229" s="143"/>
+      <c r="B229" s="143"/>
+      <c r="C229" s="144"/>
       <c r="D229" s="62"/>
       <c r="E229" s="62"/>
       <c r="F229" s="62"/>
@@ -17424,9 +17490,9 @@
       <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="136"/>
-      <c r="B230" s="136"/>
-      <c r="C230" s="137"/>
+      <c r="A230" s="143"/>
+      <c r="B230" s="143"/>
+      <c r="C230" s="144"/>
       <c r="D230" s="62"/>
       <c r="E230" s="62"/>
       <c r="F230" s="62"/>
@@ -17435,9 +17501,9 @@
       <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="136"/>
-      <c r="B231" s="136"/>
-      <c r="C231" s="137"/>
+      <c r="A231" s="143"/>
+      <c r="B231" s="143"/>
+      <c r="C231" s="144"/>
       <c r="D231" s="62"/>
       <c r="E231" s="62"/>
       <c r="F231" s="62"/>
@@ -17446,9 +17512,9 @@
       <c r="I231" s="7"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="136"/>
-      <c r="B232" s="136"/>
-      <c r="C232" s="137"/>
+      <c r="A232" s="143"/>
+      <c r="B232" s="143"/>
+      <c r="C232" s="144"/>
       <c r="D232" s="62"/>
       <c r="E232" s="62"/>
       <c r="F232" s="62"/>
@@ -17457,13 +17523,13 @@
       <c r="I232" s="7"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="136" t="s">
+      <c r="A233" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="B233" s="136" t="s">
+      <c r="B233" s="143" t="s">
         <v>301</v>
       </c>
-      <c r="C233" s="137" t="s">
+      <c r="C233" s="144" t="s">
         <v>515</v>
       </c>
       <c r="D233" s="62"/>
@@ -17474,9 +17540,9 @@
       <c r="I233" s="7"/>
     </row>
     <row r="234" spans="1:9" ht="29">
-      <c r="A234" s="136"/>
-      <c r="B234" s="136"/>
-      <c r="C234" s="137"/>
+      <c r="A234" s="143"/>
+      <c r="B234" s="143"/>
+      <c r="C234" s="144"/>
       <c r="D234" s="61" t="s">
         <v>26</v>
       </c>
@@ -17491,9 +17557,9 @@
       <c r="I234" s="7"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="136"/>
-      <c r="B235" s="136"/>
-      <c r="C235" s="137"/>
+      <c r="A235" s="143"/>
+      <c r="B235" s="143"/>
+      <c r="C235" s="144"/>
       <c r="D235" s="61" t="s">
         <v>265</v>
       </c>
@@ -17506,9 +17572,9 @@
       <c r="I235" s="7"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="136"/>
-      <c r="B236" s="136"/>
-      <c r="C236" s="137"/>
+      <c r="A236" s="143"/>
+      <c r="B236" s="143"/>
+      <c r="C236" s="144"/>
       <c r="D236" s="61" t="s">
         <v>266</v>
       </c>
@@ -17525,9 +17591,9 @@
       <c r="I236" s="7"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="136"/>
-      <c r="B237" s="136"/>
-      <c r="C237" s="137"/>
+      <c r="A237" s="143"/>
+      <c r="B237" s="143"/>
+      <c r="C237" s="144"/>
       <c r="D237" s="61" t="s">
         <v>269</v>
       </c>
@@ -17540,9 +17606,9 @@
       <c r="I237" s="7"/>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="136"/>
-      <c r="B238" s="136"/>
-      <c r="C238" s="137"/>
+      <c r="A238" s="143"/>
+      <c r="B238" s="143"/>
+      <c r="C238" s="144"/>
       <c r="D238" s="61" t="s">
         <v>271</v>
       </c>
@@ -17553,9 +17619,9 @@
       <c r="I238" s="7"/>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="136"/>
-      <c r="B239" s="136"/>
-      <c r="C239" s="137"/>
+      <c r="A239" s="143"/>
+      <c r="B239" s="143"/>
+      <c r="C239" s="144"/>
       <c r="D239" s="61" t="s">
         <v>276</v>
       </c>
@@ -17570,13 +17636,13 @@
       <c r="I239" s="7"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="136"/>
-      <c r="B240" s="136"/>
-      <c r="C240" s="137"/>
-      <c r="D240" s="143" t="s">
+      <c r="A240" s="143"/>
+      <c r="B240" s="143"/>
+      <c r="C240" s="144"/>
+      <c r="D240" s="139" t="s">
         <v>278</v>
       </c>
-      <c r="E240" s="140"/>
+      <c r="E240" s="136"/>
       <c r="F240" s="62" t="s">
         <v>426</v>
       </c>
@@ -17587,11 +17653,11 @@
       <c r="I240" s="7"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="136"/>
-      <c r="B241" s="136"/>
-      <c r="C241" s="137"/>
-      <c r="D241" s="144"/>
-      <c r="E241" s="141"/>
+      <c r="A241" s="143"/>
+      <c r="B241" s="143"/>
+      <c r="C241" s="144"/>
+      <c r="D241" s="140"/>
+      <c r="E241" s="137"/>
       <c r="F241" s="62" t="s">
         <v>428</v>
       </c>
@@ -17602,11 +17668,11 @@
       <c r="I241" s="7"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="136"/>
-      <c r="B242" s="136"/>
-      <c r="C242" s="137"/>
-      <c r="D242" s="144"/>
-      <c r="E242" s="141"/>
+      <c r="A242" s="143"/>
+      <c r="B242" s="143"/>
+      <c r="C242" s="144"/>
+      <c r="D242" s="140"/>
+      <c r="E242" s="137"/>
       <c r="F242" s="62" t="s">
         <v>430</v>
       </c>
@@ -17615,11 +17681,11 @@
       <c r="I242" s="7"/>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="136"/>
-      <c r="B243" s="136"/>
-      <c r="C243" s="137"/>
-      <c r="D243" s="145"/>
-      <c r="E243" s="142"/>
+      <c r="A243" s="143"/>
+      <c r="B243" s="143"/>
+      <c r="C243" s="144"/>
+      <c r="D243" s="141"/>
+      <c r="E243" s="138"/>
       <c r="F243" s="62" t="s">
         <v>432</v>
       </c>
@@ -17628,9 +17694,9 @@
       <c r="I243" s="7"/>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="136"/>
-      <c r="B244" s="136"/>
-      <c r="C244" s="137"/>
+      <c r="A244" s="143"/>
+      <c r="B244" s="143"/>
+      <c r="C244" s="144"/>
       <c r="D244" s="62" t="s">
         <v>434</v>
       </c>
@@ -17641,9 +17707,9 @@
       <c r="I244" s="7"/>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="136"/>
-      <c r="B245" s="136"/>
-      <c r="C245" s="137"/>
+      <c r="A245" s="143"/>
+      <c r="B245" s="143"/>
+      <c r="C245" s="144"/>
       <c r="D245" s="62" t="s">
         <v>435</v>
       </c>
@@ -17656,9 +17722,9 @@
       <c r="I245" s="7"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="136"/>
-      <c r="B246" s="136"/>
-      <c r="C246" s="137"/>
+      <c r="A246" s="143"/>
+      <c r="B246" s="143"/>
+      <c r="C246" s="144"/>
       <c r="D246" s="62" t="s">
         <v>307</v>
       </c>
@@ -17671,9 +17737,9 @@
       <c r="I246" s="7"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="136"/>
-      <c r="B247" s="136"/>
-      <c r="C247" s="137"/>
+      <c r="A247" s="143"/>
+      <c r="B247" s="143"/>
+      <c r="C247" s="144"/>
       <c r="D247" s="62" t="s">
         <v>492</v>
       </c>
@@ -17686,9 +17752,9 @@
       <c r="I247" s="7"/>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="136"/>
-      <c r="B248" s="136"/>
-      <c r="C248" s="137"/>
+      <c r="A248" s="143"/>
+      <c r="B248" s="143"/>
+      <c r="C248" s="144"/>
       <c r="D248" s="62" t="s">
         <v>516</v>
       </c>
@@ -17701,9 +17767,9 @@
       <c r="I248" s="7"/>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="136"/>
-      <c r="B249" s="136"/>
-      <c r="C249" s="137"/>
+      <c r="A249" s="143"/>
+      <c r="B249" s="143"/>
+      <c r="C249" s="144"/>
       <c r="D249" s="61" t="s">
         <v>266</v>
       </c>
@@ -17720,9 +17786,9 @@
       <c r="I249" s="7"/>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="136"/>
-      <c r="B250" s="136"/>
-      <c r="C250" s="137"/>
+      <c r="A250" s="143"/>
+      <c r="B250" s="143"/>
+      <c r="C250" s="144"/>
       <c r="D250" s="61" t="s">
         <v>419</v>
       </c>
@@ -17733,9 +17799,9 @@
       <c r="I250" s="7"/>
     </row>
     <row r="251" spans="1:9" ht="26">
-      <c r="A251" s="136"/>
-      <c r="B251" s="136"/>
-      <c r="C251" s="137"/>
+      <c r="A251" s="143"/>
+      <c r="B251" s="143"/>
+      <c r="C251" s="144"/>
       <c r="D251" s="62" t="s">
         <v>427</v>
       </c>
@@ -17748,9 +17814,9 @@
       <c r="I251" s="7"/>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="136"/>
-      <c r="B252" s="136"/>
-      <c r="C252" s="137"/>
+      <c r="A252" s="143"/>
+      <c r="B252" s="143"/>
+      <c r="C252" s="144"/>
       <c r="D252" s="62" t="s">
         <v>517</v>
       </c>
@@ -17764,15 +17830,73 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C146:C152"/>
-    <mergeCell ref="C153:C160"/>
-    <mergeCell ref="E240:E243"/>
-    <mergeCell ref="D240:D243"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="C117:C124"/>
-    <mergeCell ref="C125:C133"/>
-    <mergeCell ref="C134:C145"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C2:C22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C23:C42"/>
+    <mergeCell ref="B23:B42"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="A161:A172"/>
+    <mergeCell ref="B161:B172"/>
+    <mergeCell ref="C161:C172"/>
+    <mergeCell ref="A173:A184"/>
+    <mergeCell ref="B173:B184"/>
+    <mergeCell ref="C173:C184"/>
+    <mergeCell ref="A185:A197"/>
+    <mergeCell ref="B185:B197"/>
+    <mergeCell ref="C185:C197"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="B198:B209"/>
+    <mergeCell ref="C198:C209"/>
+    <mergeCell ref="A210:A232"/>
+    <mergeCell ref="B210:B232"/>
+    <mergeCell ref="C210:C232"/>
+    <mergeCell ref="A233:A252"/>
+    <mergeCell ref="B233:B252"/>
+    <mergeCell ref="C233:C252"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="C82:C88"/>
+    <mergeCell ref="C89:C98"/>
     <mergeCell ref="A146:A152"/>
     <mergeCell ref="A153:A160"/>
     <mergeCell ref="B82:B88"/>
@@ -17789,73 +17913,15 @@
     <mergeCell ref="A117:A124"/>
     <mergeCell ref="A125:A133"/>
     <mergeCell ref="A134:A145"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="C82:C88"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A210:A232"/>
-    <mergeCell ref="B210:B232"/>
-    <mergeCell ref="C210:C232"/>
-    <mergeCell ref="A233:A252"/>
-    <mergeCell ref="B233:B252"/>
-    <mergeCell ref="C233:C252"/>
-    <mergeCell ref="A185:A197"/>
-    <mergeCell ref="B185:B197"/>
-    <mergeCell ref="C185:C197"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="B198:B209"/>
-    <mergeCell ref="C198:C209"/>
-    <mergeCell ref="A161:A172"/>
-    <mergeCell ref="B161:B172"/>
-    <mergeCell ref="C161:C172"/>
-    <mergeCell ref="A173:A184"/>
-    <mergeCell ref="B173:B184"/>
-    <mergeCell ref="C173:C184"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="H28:H34"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="C2:C22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C23:C42"/>
-    <mergeCell ref="B23:B42"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C146:C152"/>
+    <mergeCell ref="C153:C160"/>
+    <mergeCell ref="E240:E243"/>
+    <mergeCell ref="D240:D243"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="C117:C124"/>
+    <mergeCell ref="C125:C133"/>
+    <mergeCell ref="C134:C145"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{AA51B934-E7E7-44B7-94BE-50103E0D4EB5}"/>
@@ -17879,7 +17945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBACAE88-B722-46B2-95B6-2D173A7B314A}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -17930,13 +17996,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -17951,9 +18017,9 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="29">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="112"/>
       <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
@@ -17968,9 +18034,9 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="19" t="s">
         <v>69</v>
       </c>
@@ -17983,9 +18049,9 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
@@ -18000,9 +18066,9 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="19" t="s">
         <v>28</v>
       </c>
@@ -18015,9 +18081,9 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
@@ -18030,9 +18096,9 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="19" t="s">
         <v>113</v>
       </c>
@@ -18045,9 +18111,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="19" t="s">
         <v>118</v>
       </c>
@@ -18060,9 +18126,9 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="19" t="s">
         <v>116</v>
       </c>
@@ -18075,9 +18141,9 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="29">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="19" t="s">
         <v>67</v>
       </c>
@@ -18090,9 +18156,9 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="19" t="s">
         <v>70</v>
       </c>
@@ -18105,9 +18171,9 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
@@ -18122,9 +18188,9 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="19" t="s">
         <v>28</v>
       </c>
@@ -18137,9 +18203,9 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
@@ -18152,13 +18218,13 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="112" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -18173,9 +18239,9 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="29">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="20" t="s">
         <v>13</v>
       </c>
@@ -18190,9 +18256,9 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
@@ -18205,9 +18271,9 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="19" t="s">
         <v>27</v>
       </c>
@@ -18222,9 +18288,9 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="19" t="s">
         <v>28</v>
       </c>
@@ -18237,9 +18303,9 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="19" t="s">
         <v>54</v>
       </c>
@@ -18252,9 +18318,9 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="19" t="s">
         <v>113</v>
       </c>
@@ -18267,9 +18333,9 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="19" t="s">
         <v>135</v>
       </c>
@@ -18282,9 +18348,9 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="19" t="s">
         <v>116</v>
       </c>
@@ -18297,9 +18363,9 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="29">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="19" t="s">
         <v>67</v>
       </c>
@@ -18312,9 +18378,9 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="19" t="s">
         <v>70</v>
       </c>
@@ -18327,9 +18393,9 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="19" t="s">
         <v>27</v>
       </c>
@@ -18344,9 +18410,9 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="19" t="s">
         <v>28</v>
       </c>
@@ -18359,9 +18425,9 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="19" t="s">
         <v>54</v>
       </c>
@@ -18393,7 +18459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929AA333-02EC-4E0E-B40D-CD9DAC94EF1A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -18458,16 +18524,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19640DB8-BEE5-4035-B8AC-BFC850245289}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>